--- a/data/filtered_procesos_04.xlsx
+++ b/data/filtered_procesos_04.xlsx
@@ -10359,7 +10359,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10371,11 +10371,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10610,7 +10610,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G374" activeCellId="0" sqref="G374"/>
+      <selection pane="bottomLeft" activeCell="H373" activeCellId="0" sqref="H373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10669,7 +10669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -10739,7 +10739,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -10879,7 +10879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -10914,7 +10914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>66</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -10984,7 +10984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>85</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>102</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>107</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>120</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>126</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>131</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>138</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>144</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>149</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>155</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>160</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>165</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>171</v>
       </c>
@@ -11579,7 +11579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>176</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>182</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>189</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>194</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>198</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>201</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>205</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>211</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>218</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>229</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>242</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>245</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>254</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>260</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>272</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>277</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>288</v>
       </c>
@@ -12352,7 +12352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>294</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>299</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>305</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>311</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>321</v>
       </c>
@@ -12565,7 +12565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>326</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>331</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>336</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>342</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>357</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>364</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>369</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>374</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>379</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>383</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>389</v>
       </c>
@@ -12988,7 +12988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>394</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>400</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>405</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>409</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>418</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>424</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>434</v>
       </c>
@@ -13338,7 +13338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>445</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>457</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>462</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>467</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>476</v>
       </c>
@@ -13586,7 +13586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>480</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>485</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>491</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>499</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>505</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>510</v>
       </c>
@@ -13831,7 +13831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>515</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>520</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>554</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>565</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>570</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>576</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>582</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>587</v>
       </c>
@@ -14403,7 +14403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>597</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>606</v>
       </c>
@@ -14508,7 +14508,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>610</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>621</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>631</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>641</v>
       </c>
@@ -14753,7 +14753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>645</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>649</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>654</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>658</v>
       </c>
@@ -14893,7 +14893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>661</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>671</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>675</v>
       </c>
@@ -15033,7 +15033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>679</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>684</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>690</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>695</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>699</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>710</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>720</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>725</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>729</v>
       </c>
@@ -15421,7 +15421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>734</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>740</v>
       </c>
@@ -15491,7 +15491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>744</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>748</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>757</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>767</v>
       </c>
@@ -15701,7 +15701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>773</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>779</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>787</v>
       </c>
@@ -15841,7 +15841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>792</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>801</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>805</v>
       </c>
@@ -15981,7 +15981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>810</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>814</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>818</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>823</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>829</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>834</v>
       </c>
@@ -16194,7 +16194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>838</v>
       </c>
@@ -16229,7 +16229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>843</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>847</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>858</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>864</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>874</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>879</v>
       </c>
@@ -16509,7 +16509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>883</v>
       </c>
@@ -16544,7 +16544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>887</v>
       </c>
@@ -16579,7 +16579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>892</v>
       </c>
@@ -16614,7 +16614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>897</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>902</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>908</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>913</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>923</v>
       </c>
@@ -16827,7 +16827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>928</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>933</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>939</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>942</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>947</v>
       </c>
@@ -17005,7 +17005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>951</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>964</v>
       </c>
@@ -17215,7 +17215,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>977</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>987</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>996</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>1009</v>
       </c>
@@ -17498,7 +17498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>1013</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>1017</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>1023</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>1036</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>1059</v>
       </c>
@@ -17886,7 +17886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>1062</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>1066</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>1071</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
         <v>1076</v>
       </c>
@@ -18061,7 +18061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
         <v>1087</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
         <v>1093</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
         <v>1101</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>1114</v>
       </c>
@@ -18309,7 +18309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>1120</v>
       </c>
@@ -18344,7 +18344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
         <v>1126</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>1131</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
         <v>1140</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>1148</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>1153</v>
       </c>
@@ -18589,7 +18589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>1158</v>
       </c>
@@ -18662,7 +18662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>1167</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>1178</v>
       </c>
@@ -18802,7 +18802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>1187</v>
       </c>
@@ -18837,7 +18837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
         <v>1192</v>
       </c>
@@ -18945,7 +18945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>1205</v>
       </c>
@@ -18980,7 +18980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>1210</v>
       </c>
@@ -19015,7 +19015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>1214</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>1219</v>
       </c>
@@ -19085,7 +19085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>1224</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>1230</v>
       </c>
@@ -19158,7 +19158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>1233</v>
       </c>
@@ -19263,7 +19263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>1247</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>1267</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
         <v>1276</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
         <v>1296</v>
       </c>
@@ -19651,7 +19651,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
         <v>1302</v>
       </c>
@@ -19686,7 +19686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
         <v>1308</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
         <v>1316</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
         <v>1327</v>
       </c>
@@ -19861,7 +19861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
         <v>1333</v>
       </c>
@@ -19896,7 +19896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
         <v>1339</v>
       </c>
@@ -19931,7 +19931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
         <v>1344</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
         <v>1350</v>
       </c>
@@ -20001,7 +20001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
         <v>1356</v>
       </c>
@@ -20071,7 +20071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
         <v>1367</v>
       </c>
@@ -20106,7 +20106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
         <v>1370</v>
       </c>
@@ -20141,7 +20141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
         <v>1374</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
         <v>1380</v>
       </c>
@@ -20211,7 +20211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
         <v>1384</v>
       </c>
@@ -20246,7 +20246,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
         <v>1388</v>
       </c>
@@ -20281,7 +20281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
         <v>1392</v>
       </c>
@@ -20316,7 +20316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
         <v>1398</v>
       </c>
@@ -20351,7 +20351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
         <v>1402</v>
       </c>
@@ -20386,7 +20386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
         <v>1407</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
         <v>1413</v>
       </c>
@@ -20456,7 +20456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
         <v>1417</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
         <v>1420</v>
       </c>
@@ -20526,7 +20526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
         <v>1425</v>
       </c>
@@ -20561,7 +20561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
         <v>1430</v>
       </c>
@@ -20596,7 +20596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
         <v>1435</v>
       </c>
@@ -20631,7 +20631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
         <v>1439</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
         <v>1444</v>
       </c>
@@ -20701,7 +20701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
         <v>1449</v>
       </c>
@@ -20736,7 +20736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
         <v>1453</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
         <v>1458</v>
       </c>
@@ -20806,7 +20806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
         <v>1464</v>
       </c>
@@ -20841,7 +20841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
         <v>1469</v>
       </c>
@@ -20981,7 +20981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
         <v>1489</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
         <v>1495</v>
       </c>
@@ -21051,7 +21051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
         <v>1499</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
         <v>1503</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
         <v>1514</v>
       </c>
@@ -21229,7 +21229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
         <v>1524</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
         <v>1532</v>
       </c>
@@ -21334,7 +21334,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
         <v>1536</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
         <v>1540</v>
       </c>
@@ -21404,7 +21404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
         <v>1546</v>
       </c>
@@ -21439,7 +21439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>1550</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
         <v>1555</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
         <v>1561</v>
       </c>
@@ -21579,7 +21579,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
         <v>1570</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
         <v>1576</v>
       </c>
@@ -21649,7 +21649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
         <v>1581</v>
       </c>
@@ -21684,7 +21684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
         <v>1586</v>
       </c>
@@ -21719,7 +21719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
         <v>1591</v>
       </c>
@@ -21754,7 +21754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
         <v>1596</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
         <v>1602</v>
       </c>
@@ -21827,7 +21827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
         <v>1608</v>
       </c>
@@ -21900,7 +21900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
         <v>1619</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
         <v>1628</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
         <v>1632</v>
       </c>
@@ -22040,7 +22040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
         <v>1636</v>
       </c>
@@ -22075,7 +22075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
         <v>1640</v>
       </c>
@@ -22113,7 +22113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
         <v>1646</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
         <v>1649</v>
       </c>
@@ -22218,7 +22218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
         <v>1660</v>
       </c>
@@ -22253,7 +22253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
         <v>1663</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
         <v>1666</v>
       </c>
@@ -22323,7 +22323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
         <v>1671</v>
       </c>
@@ -22358,7 +22358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
         <v>1676</v>
       </c>
@@ -22498,7 +22498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
         <v>1694</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
         <v>1698</v>
       </c>
@@ -22568,7 +22568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
         <v>1703</v>
       </c>
@@ -22638,7 +22638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
         <v>1714</v>
       </c>
@@ -22673,7 +22673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
         <v>1717</v>
       </c>
@@ -22708,7 +22708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
         <v>1722</v>
       </c>
@@ -22778,7 +22778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
         <v>1730</v>
       </c>
@@ -22813,7 +22813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
         <v>1735</v>
       </c>
@@ -22848,7 +22848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
         <v>1739</v>
       </c>
@@ -22921,7 +22921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
         <v>1749</v>
       </c>
@@ -22956,7 +22956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
         <v>1752</v>
       </c>
@@ -22991,7 +22991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
         <v>1757</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
         <v>1762</v>
       </c>
@@ -23061,7 +23061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
         <v>1766</v>
       </c>
@@ -23204,7 +23204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
         <v>1785</v>
       </c>
@@ -23239,7 +23239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
         <v>1791</v>
       </c>
@@ -23309,7 +23309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
         <v>1801</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
         <v>1807</v>
       </c>
@@ -23379,7 +23379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
         <v>1811</v>
       </c>
@@ -23414,7 +23414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
         <v>1816</v>
       </c>
@@ -23449,7 +23449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>1820</v>
       </c>
@@ -23484,7 +23484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
         <v>1825</v>
       </c>
@@ -23519,7 +23519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
         <v>1829</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
         <v>1834</v>
       </c>
@@ -23624,7 +23624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
         <v>1843</v>
       </c>
@@ -23659,7 +23659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="4" t="s">
         <v>1848</v>
       </c>
@@ -23695,7 +23695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="4" t="s">
         <v>12</v>
       </c>
@@ -23731,7 +23731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="4" t="s">
         <v>22</v>
       </c>
@@ -23767,7 +23767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="4" t="s">
         <v>28</v>
       </c>
@@ -23798,7 +23798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="4" t="s">
         <v>37</v>
       </c>
@@ -23829,7 +23829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="4" t="s">
         <v>1869</v>
       </c>
@@ -23891,7 +23891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="4" t="s">
         <v>1876</v>
       </c>
@@ -23922,7 +23922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="4" t="s">
         <v>52</v>
       </c>
@@ -23953,7 +23953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="4" t="s">
         <v>58</v>
       </c>
@@ -24015,7 +24015,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="4" t="s">
         <v>73</v>
       </c>
@@ -24046,7 +24046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="4" t="s">
         <v>79</v>
       </c>
@@ -24108,7 +24108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="4" t="s">
         <v>96</v>
       </c>
@@ -24139,7 +24139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="4" t="s">
         <v>102</v>
       </c>
@@ -24263,7 +24263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="4" t="s">
         <v>120</v>
       </c>
@@ -24325,7 +24325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="4" t="s">
         <v>1933</v>
       </c>
@@ -24387,7 +24387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="4" t="s">
         <v>149</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="4" t="s">
         <v>155</v>
       </c>
@@ -24511,7 +24511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="4" t="s">
         <v>171</v>
       </c>
@@ -24542,7 +24542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="4" t="s">
         <v>176</v>
       </c>
@@ -24573,7 +24573,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="4" t="s">
         <v>182</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="4" t="s">
         <v>189</v>
       </c>
@@ -24635,7 +24635,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
         <v>1974</v>
       </c>
@@ -24697,7 +24697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="4" t="s">
         <v>201</v>
       </c>
@@ -24728,7 +24728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="4" t="s">
         <v>218</v>
       </c>
@@ -24821,7 +24821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="4" t="s">
         <v>224</v>
       </c>
@@ -24852,7 +24852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="4" t="s">
         <v>229</v>
       </c>
@@ -24883,7 +24883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="4" t="s">
         <v>2006</v>
       </c>
@@ -24914,7 +24914,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="4" t="s">
         <v>236</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="4" t="s">
         <v>242</v>
       </c>
@@ -24978,7 +24978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="4" t="s">
         <v>245</v>
       </c>
@@ -25009,7 +25009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="4" t="s">
         <v>254</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="4" t="s">
         <v>260</v>
       </c>
@@ -25133,7 +25133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="4" t="s">
         <v>272</v>
       </c>
@@ -25164,7 +25164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="4" t="s">
         <v>2043</v>
       </c>
@@ -25195,7 +25195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="4" t="s">
         <v>277</v>
       </c>
@@ -25226,7 +25226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="4" t="s">
         <v>283</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="4" t="s">
         <v>299</v>
       </c>
@@ -25319,7 +25319,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="4" t="s">
         <v>305</v>
       </c>
@@ -25350,7 +25350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="4" t="s">
         <v>311</v>
       </c>
@@ -25381,7 +25381,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="4" t="s">
         <v>317</v>
       </c>
@@ -25412,7 +25412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="4" t="s">
         <v>321</v>
       </c>
@@ -25443,7 +25443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="4" t="s">
         <v>326</v>
       </c>
@@ -25505,7 +25505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="4" t="s">
         <v>336</v>
       </c>
@@ -25536,7 +25536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="4" t="s">
         <v>342</v>
       </c>
@@ -25567,7 +25567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="4" t="s">
         <v>2091</v>
       </c>
@@ -25631,7 +25631,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="4" t="s">
         <v>349</v>
       </c>
@@ -25662,7 +25662,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="4" t="s">
         <v>357</v>
       </c>
@@ -25695,7 +25695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="4" t="s">
         <v>364</v>
       </c>
@@ -25726,7 +25726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="4" t="s">
         <v>369</v>
       </c>
@@ -25757,7 +25757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="4" t="s">
         <v>374</v>
       </c>
@@ -25788,7 +25788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="4" t="s">
         <v>2117</v>
       </c>
@@ -25819,7 +25819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="4" t="s">
         <v>2120</v>
       </c>
@@ -25850,7 +25850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="4" t="s">
         <v>379</v>
       </c>
@@ -25881,7 +25881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="4" t="s">
         <v>383</v>
       </c>
@@ -25912,7 +25912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="4" t="s">
         <v>389</v>
       </c>
@@ -25943,7 +25943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="4" t="s">
         <v>409</v>
       </c>
@@ -25974,7 +25974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="4" t="s">
         <v>413</v>
       </c>
@@ -26007,7 +26007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="4" t="s">
         <v>418</v>
       </c>
@@ -26069,7 +26069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="4" t="s">
         <v>2149</v>
       </c>
@@ -26100,7 +26100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="4" t="s">
         <v>2153</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="4" t="s">
         <v>429</v>
       </c>
@@ -26162,7 +26162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="4" t="s">
         <v>434</v>
       </c>
@@ -26193,7 +26193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="4" t="s">
         <v>439</v>
       </c>
@@ -26224,7 +26224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="4" t="s">
         <v>2170</v>
       </c>
@@ -26255,7 +26255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="4" t="s">
         <v>451</v>
       </c>
@@ -26317,7 +26317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="4" t="s">
         <v>462</v>
       </c>
@@ -26379,7 +26379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="4" t="s">
         <v>2188</v>
       </c>
@@ -26410,7 +26410,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="4" t="s">
         <v>471</v>
       </c>
@@ -26441,7 +26441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="4" t="s">
         <v>476</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="4" t="s">
         <v>480</v>
       </c>
@@ -26503,7 +26503,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="4" t="s">
         <v>485</v>
       </c>
@@ -26534,7 +26534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="4" t="s">
         <v>491</v>
       </c>
@@ -26565,7 +26565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="4" t="s">
         <v>496</v>
       </c>
@@ -26596,7 +26596,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="4" t="s">
         <v>499</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="4" t="s">
         <v>505</v>
       </c>
@@ -26658,7 +26658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="83.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="4" t="s">
         <v>510</v>
       </c>
@@ -26689,7 +26689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="4" t="s">
         <v>515</v>
       </c>
@@ -26720,7 +26720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="4" t="s">
         <v>520</v>
       </c>
@@ -26784,7 +26784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="4" t="s">
         <v>537</v>
       </c>
@@ -26815,7 +26815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="4" t="s">
         <v>541</v>
       </c>
@@ -26877,7 +26877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="4" t="s">
         <v>2248</v>
       </c>
@@ -26908,7 +26908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="4" t="s">
         <v>2253</v>
       </c>
@@ -26939,7 +26939,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="4" t="s">
         <v>565</v>
       </c>
@@ -27063,7 +27063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="4" t="s">
         <v>587</v>
       </c>
@@ -27096,7 +27096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="4" t="s">
         <v>2275</v>
       </c>
@@ -27189,7 +27189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="4" t="s">
         <v>2287</v>
       </c>
@@ -27220,7 +27220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="4" t="s">
         <v>2292</v>
       </c>
@@ -27282,7 +27282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="4" t="s">
         <v>606</v>
       </c>
@@ -27313,7 +27313,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="4" t="s">
         <v>610</v>
       </c>
@@ -27344,7 +27344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="4" t="s">
         <v>615</v>
       </c>
@@ -27437,7 +27437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="4" t="s">
         <v>631</v>
       </c>
@@ -27499,7 +27499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="4" t="s">
         <v>645</v>
       </c>
@@ -27530,7 +27530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="4" t="s">
         <v>649</v>
       </c>
@@ -27623,7 +27623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="4" t="s">
         <v>671</v>
       </c>
@@ -27654,7 +27654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="4" t="s">
         <v>675</v>
       </c>
@@ -27747,7 +27747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="4" t="s">
         <v>699</v>
       </c>
@@ -27778,7 +27778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="4" t="s">
         <v>710</v>
       </c>
@@ -27809,7 +27809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="4" t="s">
         <v>715</v>
       </c>
@@ -27840,7 +27840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="4" t="s">
         <v>720</v>
       </c>
@@ -27902,7 +27902,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="4" t="s">
         <v>2374</v>
       </c>
@@ -27933,7 +27933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="4" t="s">
         <v>734</v>
       </c>
@@ -27964,7 +27964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="4" t="s">
         <v>2384</v>
       </c>
@@ -28026,7 +28026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="4" t="s">
         <v>744</v>
       </c>
@@ -28057,7 +28057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="4" t="s">
         <v>2397</v>
       </c>
@@ -28088,7 +28088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="4" t="s">
         <v>752</v>
       </c>
@@ -28119,7 +28119,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="4" t="s">
         <v>757</v>
       </c>
@@ -28181,7 +28181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="4" t="s">
         <v>762</v>
       </c>
@@ -28212,7 +28212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="4" t="s">
         <v>2417</v>
       </c>
@@ -28243,7 +28243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="4" t="s">
         <v>773</v>
       </c>
@@ -28274,7 +28274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="4" t="s">
         <v>2427</v>
       </c>
@@ -28305,7 +28305,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="4" t="s">
         <v>782</v>
       </c>
@@ -28336,7 +28336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="4" t="s">
         <v>787</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="4" t="s">
         <v>2441</v>
       </c>
@@ -28429,7 +28429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="4" t="s">
         <v>2447</v>
       </c>
@@ -28460,7 +28460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="4" t="s">
         <v>2451</v>
       </c>
@@ -28491,7 +28491,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="4" t="s">
         <v>796</v>
       </c>
@@ -28553,7 +28553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="4" t="s">
         <v>805</v>
       </c>
@@ -28584,7 +28584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="4" t="s">
         <v>810</v>
       </c>
@@ -28615,7 +28615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="4" t="s">
         <v>818</v>
       </c>
@@ -28646,7 +28646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="4" t="s">
         <v>823</v>
       </c>
@@ -28677,7 +28677,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="4" t="s">
         <v>829</v>
       </c>
@@ -28708,7 +28708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="4" t="s">
         <v>834</v>
       </c>
@@ -28832,7 +28832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="4" t="s">
         <v>858</v>
       </c>
@@ -28863,7 +28863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="s">
         <v>2497</v>
       </c>
@@ -28894,7 +28894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="4" t="s">
         <v>2502</v>
       </c>
@@ -28956,7 +28956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="s">
         <v>2510</v>
       </c>
@@ -28987,7 +28987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="4" t="s">
         <v>869</v>
       </c>
@@ -29080,7 +29080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="4" t="s">
         <v>2524</v>
       </c>
@@ -29144,7 +29144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="4" t="s">
         <v>887</v>
       </c>
@@ -29175,7 +29175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="4" t="s">
         <v>2534</v>
       </c>
@@ -29268,7 +29268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="4" t="s">
         <v>2547</v>
       </c>
@@ -29423,7 +29423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="s">
         <v>2565</v>
       </c>
@@ -29454,7 +29454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="s">
         <v>2570</v>
       </c>
@@ -29518,7 +29518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="4" t="s">
         <v>923</v>
       </c>
@@ -29549,7 +29549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="4" t="s">
         <v>928</v>
       </c>
@@ -29580,7 +29580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
         <v>2584</v>
       </c>
@@ -29611,7 +29611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="4" t="s">
         <v>2589</v>
       </c>
@@ -29673,7 +29673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="4" t="s">
         <v>951</v>
       </c>
@@ -29735,7 +29735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="4" t="s">
         <v>959</v>
       </c>
@@ -29766,7 +29766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="4" t="s">
         <v>964</v>
       </c>
@@ -29799,7 +29799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="4" t="s">
         <v>968</v>
       </c>
@@ -29830,7 +29830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="4" t="s">
         <v>973</v>
       </c>
@@ -29861,7 +29861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
         <v>2618</v>
       </c>
@@ -29892,7 +29892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
         <v>2623</v>
       </c>
@@ -29925,7 +29925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="4" t="s">
         <v>977</v>
       </c>
@@ -29956,7 +29956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="4" t="s">
         <v>983</v>
       </c>
@@ -29987,7 +29987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="4" t="s">
         <v>987</v>
       </c>
@@ -30018,7 +30018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="4" t="s">
         <v>991</v>
       </c>
@@ -30049,7 +30049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="4" t="s">
         <v>996</v>
       </c>
@@ -30111,7 +30111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="4" t="s">
         <v>1004</v>
       </c>
@@ -30142,7 +30142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="4" t="s">
         <v>1009</v>
       </c>
@@ -30173,7 +30173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="4" t="s">
         <v>1013</v>
       </c>
@@ -30204,7 +30204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="4" t="s">
         <v>1017</v>
       </c>
@@ -30266,7 +30266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="4" t="s">
         <v>1028</v>
       </c>
@@ -30297,7 +30297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
         <v>2669</v>
       </c>
@@ -30328,7 +30328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
         <v>2672</v>
       </c>
@@ -30390,7 +30390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="4" t="s">
         <v>1036</v>
       </c>
@@ -30421,7 +30421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="4" t="s">
         <v>1042</v>
       </c>
@@ -30485,7 +30485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="4" t="s">
         <v>1050</v>
       </c>
@@ -30580,7 +30580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="4" t="s">
         <v>1054</v>
       </c>
@@ -30611,7 +30611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
         <v>2700</v>
       </c>
@@ -30642,7 +30642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="4" t="s">
         <v>1062</v>
       </c>
@@ -30737,7 +30737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="4" t="s">
         <v>1087</v>
       </c>
@@ -30768,7 +30768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
         <v>2723</v>
       </c>
@@ -30830,7 +30830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
         <v>2731</v>
       </c>
@@ -30861,7 +30861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
         <v>2735</v>
       </c>
@@ -30892,7 +30892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="4" t="s">
         <v>1097</v>
       </c>
@@ -30923,7 +30923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
         <v>2742</v>
       </c>
@@ -30956,7 +30956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="4" t="s">
         <v>1101</v>
       </c>
@@ -30987,7 +30987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="4" t="s">
         <v>1106</v>
       </c>
@@ -31018,7 +31018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="4" t="s">
         <v>1110</v>
       </c>
@@ -31080,7 +31080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="4" t="s">
         <v>1120</v>
       </c>
@@ -31111,7 +31111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
         <v>2764</v>
       </c>
@@ -31173,7 +31173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="612" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="4" t="s">
         <v>1131</v>
       </c>
@@ -31235,7 +31235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
         <v>2777</v>
       </c>
@@ -31266,7 +31266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="4" t="s">
         <v>1140</v>
       </c>
@@ -31297,7 +31297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="4" t="s">
         <v>1144</v>
       </c>
@@ -31328,7 +31328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="4" t="s">
         <v>2787</v>
       </c>
@@ -31359,7 +31359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="4" t="s">
         <v>1148</v>
       </c>
@@ -31390,7 +31390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="4" t="s">
         <v>1153</v>
       </c>
@@ -31421,7 +31421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="4" t="s">
         <v>1158</v>
       </c>
@@ -31483,7 +31483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="4" t="s">
         <v>1173</v>
       </c>
@@ -31514,7 +31514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="4" t="s">
         <v>1178</v>
       </c>
@@ -31545,7 +31545,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="4" t="s">
         <v>1184</v>
       </c>
@@ -31578,7 +31578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="625" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
         <v>2817</v>
       </c>
@@ -31609,7 +31609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="4" t="s">
         <v>1187</v>
       </c>
@@ -31671,7 +31671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="4" t="s">
         <v>2828</v>
       </c>
@@ -31702,7 +31702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="4" t="s">
         <v>1197</v>
       </c>
@@ -31733,7 +31733,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="4" t="s">
         <v>2836</v>
       </c>
@@ -31764,7 +31764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="4" t="s">
         <v>1201</v>
       </c>
@@ -31826,7 +31826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="4" t="s">
         <v>1214</v>
       </c>
@@ -31919,7 +31919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="4" t="s">
         <v>1224</v>
       </c>
@@ -31950,7 +31950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="4" t="s">
         <v>1230</v>
       </c>
@@ -31981,7 +31981,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="4" t="s">
         <v>1233</v>
       </c>
@@ -32012,7 +32012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="4" t="s">
         <v>1247</v>
       </c>
@@ -32045,7 +32045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="4" t="s">
         <v>1251</v>
       </c>
@@ -32107,7 +32107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="4" t="s">
         <v>2878</v>
       </c>
@@ -32138,7 +32138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="4" t="s">
         <v>2881</v>
       </c>
@@ -32169,7 +32169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="4" t="s">
         <v>1262</v>
       </c>
@@ -32200,7 +32200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="4" t="s">
         <v>1267</v>
       </c>
@@ -32231,7 +32231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="4" t="s">
         <v>2891</v>
       </c>
@@ -32262,7 +32262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="4" t="s">
         <v>2895</v>
       </c>
@@ -32293,7 +32293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="4" t="s">
         <v>2901</v>
       </c>
@@ -32324,7 +32324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="4" t="s">
         <v>1272</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="4" t="s">
         <v>1276</v>
       </c>
@@ -32450,7 +32450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="4" t="s">
         <v>1296</v>
       </c>
@@ -32481,7 +32481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="4" t="s">
         <v>2923</v>
       </c>
@@ -32576,7 +32576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="4" t="s">
         <v>1313</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="4" t="s">
         <v>1316</v>
       </c>
@@ -32638,7 +32638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="4" t="s">
         <v>1323</v>
       </c>
@@ -32669,7 +32669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="4" t="s">
         <v>2943</v>
       </c>
@@ -32700,7 +32700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="4" t="s">
         <v>1350</v>
       </c>
@@ -32731,7 +32731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="4" t="s">
         <v>1361</v>
       </c>
@@ -32764,7 +32764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="4" t="s">
         <v>1367</v>
       </c>
@@ -32795,7 +32795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="4" t="s">
         <v>1370</v>
       </c>
@@ -32826,7 +32826,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="4" t="s">
         <v>1374</v>
       </c>
@@ -32859,7 +32859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="4" t="s">
         <v>1380</v>
       </c>
@@ -32921,7 +32921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="4" t="s">
         <v>1388</v>
       </c>
@@ -32952,7 +32952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="669" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="4" t="s">
         <v>1392</v>
       </c>
@@ -32983,7 +32983,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="670" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="4" t="s">
         <v>1402</v>
       </c>
@@ -33014,7 +33014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="671" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="4" t="s">
         <v>1407</v>
       </c>
@@ -33045,7 +33045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="672" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="4" t="s">
         <v>1413</v>
       </c>
@@ -33169,7 +33169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="676" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="4" t="s">
         <v>2995</v>
       </c>
@@ -33231,7 +33231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="4" t="s">
         <v>1430</v>
       </c>
@@ -33262,7 +33262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="679" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="4" t="s">
         <v>1435</v>
       </c>
@@ -33293,7 +33293,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="4" t="s">
         <v>1439</v>
       </c>
@@ -33324,7 +33324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="681" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="4" t="s">
         <v>1444</v>
       </c>
@@ -33355,7 +33355,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="4" t="s">
         <v>1453</v>
       </c>
@@ -33386,7 +33386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="683" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="4" t="s">
         <v>1458</v>
       </c>
@@ -33448,7 +33448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="685" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="4" t="s">
         <v>1469</v>
       </c>
@@ -33510,7 +33510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="687" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="4" t="s">
         <v>1479</v>
       </c>
@@ -33541,7 +33541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="688" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="4" t="s">
         <v>1484</v>
       </c>
@@ -33603,7 +33603,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="690" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="4" t="s">
         <v>3046</v>
       </c>
@@ -33634,7 +33634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="691" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="4" t="s">
         <v>1495</v>
       </c>
@@ -33665,7 +33665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="692" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="4" t="s">
         <v>3056</v>
       </c>
@@ -33696,7 +33696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="693" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="4" t="s">
         <v>1499</v>
       </c>
@@ -33727,7 +33727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="694" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="4" t="s">
         <v>1503</v>
       </c>
@@ -33758,7 +33758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="695" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="4" t="s">
         <v>1509</v>
       </c>
@@ -33789,7 +33789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="696" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="4" t="s">
         <v>1514</v>
       </c>
@@ -33820,7 +33820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="697" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="4" t="s">
         <v>1519</v>
       </c>
@@ -33851,7 +33851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="698" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="4" t="s">
         <v>1524</v>
       </c>
@@ -33882,7 +33882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="699" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="4" t="s">
         <v>1528</v>
       </c>
@@ -33944,7 +33944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="701" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="4" t="s">
         <v>1536</v>
       </c>
@@ -33975,7 +33975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="702" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="4" t="s">
         <v>1546</v>
       </c>
@@ -34006,7 +34006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="703" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="4" t="s">
         <v>1550</v>
       </c>
@@ -34068,7 +34068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="705" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="4" t="s">
         <v>1561</v>
       </c>
@@ -34192,7 +34192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="709" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="4" t="s">
         <v>1596</v>
       </c>
@@ -34223,7 +34223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="710" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="4" t="s">
         <v>1602</v>
       </c>
@@ -34254,7 +34254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="711" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="4" t="s">
         <v>3125</v>
       </c>
@@ -34285,7 +34285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="712" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="4" t="s">
         <v>1608</v>
       </c>
@@ -34316,7 +34316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="713" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="4" t="s">
         <v>1614</v>
       </c>
@@ -34378,7 +34378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="715" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="4" t="s">
         <v>3140</v>
       </c>
@@ -34409,7 +34409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="4" t="s">
         <v>1624</v>
       </c>
@@ -34471,7 +34471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="718" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="4" t="s">
         <v>1632</v>
       </c>
@@ -34564,7 +34564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="4" t="s">
         <v>1646</v>
       </c>
@@ -34595,7 +34595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="4" t="s">
         <v>3170</v>
       </c>
@@ -34626,7 +34626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="723" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="4" t="s">
         <v>1649</v>
       </c>
@@ -34688,7 +34688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="725" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="4" t="s">
         <v>1660</v>
       </c>
@@ -34719,7 +34719,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="726" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="4" t="s">
         <v>1663</v>
       </c>
@@ -34750,7 +34750,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="727" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="4" t="s">
         <v>1666</v>
       </c>
@@ -34781,7 +34781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="728" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="67.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="4" t="s">
         <v>1671</v>
       </c>
@@ -34812,7 +34812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="729" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="4" t="s">
         <v>3196</v>
       </c>
@@ -34843,7 +34843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="730" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="4" t="s">
         <v>3200</v>
       </c>
@@ -34876,7 +34876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="731" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="4" t="s">
         <v>1676</v>
       </c>
@@ -34907,7 +34907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="732" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="4" t="s">
         <v>1682</v>
       </c>
@@ -34938,7 +34938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="733" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="4" t="s">
         <v>3214</v>
       </c>
@@ -35035,7 +35035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="736" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="4" t="s">
         <v>1689</v>
       </c>
@@ -35066,7 +35066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="737" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="4" t="s">
         <v>1694</v>
       </c>
@@ -35128,7 +35128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="739" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="4" t="s">
         <v>1703</v>
       </c>
@@ -35159,7 +35159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="740" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="4" t="s">
         <v>1709</v>
       </c>
@@ -35190,7 +35190,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="741" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="4" t="s">
         <v>1717</v>
       </c>
@@ -35223,7 +35223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="742" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="4" t="s">
         <v>1722</v>
       </c>
@@ -35254,7 +35254,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="743" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="4" t="s">
         <v>1726</v>
       </c>
@@ -35285,7 +35285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="744" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="4" t="s">
         <v>3257</v>
       </c>
@@ -35318,7 +35318,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="745" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="4" t="s">
         <v>3262</v>
       </c>
@@ -35349,7 +35349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="746" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="4" t="s">
         <v>1730</v>
       </c>
@@ -35411,7 +35411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="748" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="4" t="s">
         <v>3273</v>
       </c>
@@ -35473,7 +35473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="750" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="4" t="s">
         <v>1739</v>
       </c>
@@ -35504,7 +35504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="751" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="4" t="s">
         <v>3284</v>
       </c>
@@ -35535,7 +35535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="752" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="4" t="s">
         <v>3289</v>
       </c>
@@ -35566,7 +35566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="753" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="4" t="s">
         <v>3294</v>
       </c>
@@ -35597,7 +35597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="754" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="4" t="s">
         <v>1745</v>
       </c>
@@ -35628,7 +35628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="755" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="4" t="s">
         <v>1749</v>
       </c>
@@ -35659,7 +35659,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="756" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="4" t="s">
         <v>1752</v>
       </c>
@@ -35690,7 +35690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="757" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="4" t="s">
         <v>3314</v>
       </c>
@@ -35721,7 +35721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="758" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="4" t="s">
         <v>1757</v>
       </c>
@@ -35752,7 +35752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="759" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="4" t="s">
         <v>3322</v>
       </c>
@@ -35783,7 +35783,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="760" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="4" t="s">
         <v>1762</v>
       </c>
@@ -35814,7 +35814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="761" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="4" t="s">
         <v>1766</v>
       </c>
@@ -35845,7 +35845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="762" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="4" t="s">
         <v>1771</v>
       </c>
@@ -35907,7 +35907,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="764" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="4" t="s">
         <v>1780</v>
       </c>
@@ -35938,7 +35938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="765" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="4" t="s">
         <v>1785</v>
       </c>
@@ -35969,7 +35969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="766" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="4" t="s">
         <v>1791</v>
       </c>
@@ -36000,7 +36000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="767" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="4" t="s">
         <v>1796</v>
       </c>
@@ -36031,7 +36031,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="768" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="4" t="s">
         <v>3359</v>
       </c>
@@ -36062,7 +36062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="769" customFormat="false" ht="18.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="4" t="s">
         <v>1801</v>
       </c>
@@ -36093,7 +36093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="770" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="4" t="s">
         <v>1807</v>
       </c>
@@ -36124,7 +36124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="771" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="4" t="s">
         <v>1811</v>
       </c>
@@ -36155,7 +36155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="772" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="4" t="s">
         <v>1816</v>
       </c>
@@ -36188,7 +36188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="773" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="4" t="s">
         <v>1820</v>
       </c>
@@ -36219,7 +36219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="774" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="4" t="s">
         <v>1825</v>
       </c>
@@ -36250,7 +36250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="775" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="4" t="s">
         <v>1829</v>
       </c>
@@ -36281,7 +36281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="776" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="4" t="s">
         <v>1834</v>
       </c>
@@ -36312,7 +36312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="777" customFormat="false" ht="52.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="4" t="s">
         <v>1840</v>
       </c>
@@ -36343,7 +36343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="778" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="4" t="s">
         <v>1843</v>
       </c>

--- a/data/filtered_procesos_04.xlsx
+++ b/data/filtered_procesos_04.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$F$1:$L$370</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$F$1:$L$778</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7800" uniqueCount="3403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8002" uniqueCount="3405">
   <si>
     <t xml:space="preserve">N°</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">venta</t>
   </si>
   <si>
-    <t xml:space="preserve">agregados</t>
+    <t xml:space="preserve">agregados_cantera</t>
   </si>
   <si>
     <t xml:space="preserve">---</t>
@@ -4163,7 +4163,7 @@
     <t xml:space="preserve">CONTRATACION DEL SERVICIO DE ¿RECOLECCION, TRANSPORTE, TRATAMIENTO Y DISPOSICION FINAL DE LOS RESIDUOS SOLIDOS PELIGROSOS DE LAS 23 IPRESS DE LA RED DE SERVICIOS DE SALUD CUSCO VRAEM</t>
   </si>
   <si>
-    <t xml:space="preserve">? saneamiento_ambiental</t>
+    <t xml:space="preserve">saneamiento_ambiental</t>
   </si>
   <si>
     <t xml:space="preserve">376</t>
@@ -6509,6 +6509,9 @@
     <t xml:space="preserve">CONTRATACIÓN DEL SERVICIO DE DE SUPERVISIÓN DEL ESTUDIO DE PRE INVERSIÓN : MEJORAMIENTO DEL SERVICIO DE TRANSITABILIDAD VIAL INTERURBANA EN LA RED VIAL DEPARTAMETNAL LA-111 DESDE EL EMP.PE-1N EN LA VICTORIA (OVALO GRAN CHIMU) HASTA EMP.CON LA-816, DISTRITO DE CHICLAYO, PROVINCIA DE CHICLAYO, DEPARTAMENTO DE LAMBAYEQUE.</t>
   </si>
   <si>
+    <t xml:space="preserve">supervision_pre</t>
+  </si>
+  <si>
     <t xml:space="preserve">GOBIERNO REGIONAL METROPOLITANO DE LIMA</t>
   </si>
   <si>
@@ -6600,6 +6603,9 @@
   </si>
   <si>
     <t xml:space="preserve">ADQUISICION DE PIEDRA CHANCADA PARA BICAPA PARA EL PROYECTO MEJORAMIENTO DEL SERVICIO DE TRANSITABILIDAD VIAL INTERURBANA EN LA VIA VECINAL EMP-MO-108 EMP MO 504 DEL CENTRO POBLADO CHILATA DISTRITO DE PUQUINA DE LA PROVINCIA GENERAL SANCHEZ CERRO DEPARTAMENTO DE MOQUEGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vena</t>
   </si>
   <si>
     <t xml:space="preserve">05/12/2024 20:49</t>
@@ -10342,7 +10348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -10376,6 +10382,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -10608,9 +10622,9 @@
   <dimension ref="A1:L778"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A455" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H373" activeCellId="0" sqref="H373"/>
+      <selection pane="bottomLeft" activeCell="I474" activeCellId="0" sqref="H474:I474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23787,7 +23801,12 @@
       <c r="G374" s="7" t="s">
         <v>1863</v>
       </c>
-      <c r="H374" s="8"/>
+      <c r="H374" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I374" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J374" s="4" t="s">
         <v>1864</v>
       </c>
@@ -23818,7 +23837,12 @@
       <c r="G375" s="7" t="s">
         <v>1867</v>
       </c>
-      <c r="H375" s="8"/>
+      <c r="H375" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I375" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J375" s="4" t="s">
         <v>1868</v>
       </c>
@@ -23849,7 +23873,12 @@
       <c r="G376" s="7" t="s">
         <v>1871</v>
       </c>
-      <c r="H376" s="8"/>
+      <c r="H376" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I376" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="J376" s="4" t="s">
         <v>1872</v>
       </c>
@@ -23880,7 +23909,12 @@
       <c r="G377" s="7" t="s">
         <v>1875</v>
       </c>
-      <c r="H377" s="8"/>
+      <c r="H377" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I377" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="J377" s="4" t="s">
         <v>20</v>
       </c>
@@ -23911,7 +23945,12 @@
       <c r="G378" s="7" t="s">
         <v>1879</v>
       </c>
-      <c r="H378" s="8"/>
+      <c r="H378" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I378" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J378" s="4" t="s">
         <v>1880</v>
       </c>
@@ -23942,7 +23981,12 @@
       <c r="G379" s="7" t="s">
         <v>1884</v>
       </c>
-      <c r="H379" s="8"/>
+      <c r="H379" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I379" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J379" s="4" t="s">
         <v>1885</v>
       </c>
@@ -23973,7 +24017,12 @@
       <c r="G380" s="7" t="s">
         <v>1888</v>
       </c>
-      <c r="H380" s="8"/>
+      <c r="H380" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I380" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J380" s="4" t="s">
         <v>20</v>
       </c>
@@ -24004,7 +24053,12 @@
       <c r="G381" s="7" t="s">
         <v>1891</v>
       </c>
-      <c r="H381" s="8"/>
+      <c r="H381" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I381" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="J381" s="4" t="s">
         <v>20</v>
       </c>
@@ -24035,7 +24089,12 @@
       <c r="G382" s="7" t="s">
         <v>1895</v>
       </c>
-      <c r="H382" s="8"/>
+      <c r="H382" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I382" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="J382" s="4" t="s">
         <v>1896</v>
       </c>
@@ -24066,7 +24125,12 @@
       <c r="G383" s="7" t="s">
         <v>1900</v>
       </c>
-      <c r="H383" s="8"/>
+      <c r="H383" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I383" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="J383" s="4" t="s">
         <v>20</v>
       </c>
@@ -24097,7 +24161,12 @@
       <c r="G384" s="7" t="s">
         <v>1904</v>
       </c>
-      <c r="H384" s="8"/>
+      <c r="H384" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I384" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J384" s="4" t="s">
         <v>20</v>
       </c>
@@ -24128,7 +24197,12 @@
       <c r="G385" s="7" t="s">
         <v>1908</v>
       </c>
-      <c r="H385" s="8"/>
+      <c r="H385" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I385" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J385" s="4" t="s">
         <v>20</v>
       </c>
@@ -24159,7 +24233,12 @@
       <c r="G386" s="7" t="s">
         <v>1912</v>
       </c>
-      <c r="H386" s="8"/>
+      <c r="H386" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I386" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="J386" s="4" t="s">
         <v>20</v>
       </c>
@@ -24190,7 +24269,12 @@
       <c r="G387" s="7" t="s">
         <v>1916</v>
       </c>
-      <c r="H387" s="8"/>
+      <c r="H387" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I387" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J387" s="4" t="s">
         <v>1917</v>
       </c>
@@ -24221,7 +24305,12 @@
       <c r="G388" s="7" t="s">
         <v>1920</v>
       </c>
-      <c r="H388" s="8"/>
+      <c r="H388" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I388" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J388" s="4" t="s">
         <v>1921</v>
       </c>
@@ -24252,7 +24341,12 @@
       <c r="G389" s="7" t="s">
         <v>1926</v>
       </c>
-      <c r="H389" s="8"/>
+      <c r="H389" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I389" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J389" s="4" t="s">
         <v>20</v>
       </c>
@@ -24283,7 +24377,12 @@
       <c r="G390" s="7" t="s">
         <v>1928</v>
       </c>
-      <c r="H390" s="8"/>
+      <c r="H390" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I390" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J390" s="4" t="s">
         <v>1929</v>
       </c>
@@ -24314,7 +24413,12 @@
       <c r="G391" s="7" t="s">
         <v>1932</v>
       </c>
-      <c r="H391" s="8"/>
+      <c r="H391" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I391" s="3" t="s">
+        <v>620</v>
+      </c>
       <c r="J391" s="4" t="s">
         <v>355</v>
       </c>
@@ -24345,7 +24449,12 @@
       <c r="G392" s="7" t="s">
         <v>1936</v>
       </c>
-      <c r="H392" s="8"/>
+      <c r="H392" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I392" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J392" s="4" t="s">
         <v>1937</v>
       </c>
@@ -24376,7 +24485,12 @@
       <c r="G393" s="7" t="s">
         <v>1941</v>
       </c>
-      <c r="H393" s="8"/>
+      <c r="H393" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I393" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="J393" s="4" t="s">
         <v>20</v>
       </c>
@@ -24407,7 +24521,12 @@
       <c r="G394" s="7" t="s">
         <v>1944</v>
       </c>
-      <c r="H394" s="8"/>
+      <c r="H394" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I394" s="3" t="s">
+        <v>444</v>
+      </c>
       <c r="J394" s="4" t="s">
         <v>20</v>
       </c>
@@ -24438,7 +24557,12 @@
       <c r="G395" s="7" t="s">
         <v>1948</v>
       </c>
-      <c r="H395" s="8"/>
+      <c r="H395" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I395" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="J395" s="4" t="s">
         <v>20</v>
       </c>
@@ -24469,7 +24593,12 @@
       <c r="G396" s="7" t="s">
         <v>1951</v>
       </c>
-      <c r="H396" s="8"/>
+      <c r="H396" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I396" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J396" s="4" t="s">
         <v>20</v>
       </c>
@@ -24500,7 +24629,12 @@
       <c r="G397" s="7" t="s">
         <v>1955</v>
       </c>
-      <c r="H397" s="8"/>
+      <c r="H397" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I397" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J397" s="4" t="s">
         <v>20</v>
       </c>
@@ -24531,7 +24665,12 @@
       <c r="G398" s="7" t="s">
         <v>1958</v>
       </c>
-      <c r="H398" s="8"/>
+      <c r="H398" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I398" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J398" s="4" t="s">
         <v>1959</v>
       </c>
@@ -24562,7 +24701,12 @@
       <c r="G399" s="7" t="s">
         <v>1962</v>
       </c>
-      <c r="H399" s="8"/>
+      <c r="H399" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I399" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J399" s="4" t="s">
         <v>1963</v>
       </c>
@@ -24593,7 +24737,12 @@
       <c r="G400" s="7" t="s">
         <v>1967</v>
       </c>
-      <c r="H400" s="8"/>
+      <c r="H400" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I400" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J400" s="4" t="s">
         <v>1968</v>
       </c>
@@ -24624,7 +24773,12 @@
       <c r="G401" s="7" t="s">
         <v>1972</v>
       </c>
-      <c r="H401" s="8"/>
+      <c r="H401" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I401" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J401" s="4" t="s">
         <v>1973</v>
       </c>
@@ -24655,7 +24809,12 @@
       <c r="G402" s="7" t="s">
         <v>1978</v>
       </c>
-      <c r="H402" s="8"/>
+      <c r="H402" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I402" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J402" s="4" t="s">
         <v>20</v>
       </c>
@@ -24686,7 +24845,12 @@
       <c r="G403" s="7" t="s">
         <v>1981</v>
       </c>
-      <c r="H403" s="8"/>
+      <c r="H403" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="I403" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="J403" s="4" t="s">
         <v>20</v>
       </c>
@@ -24717,7 +24881,12 @@
       <c r="G404" s="7" t="s">
         <v>1984</v>
       </c>
-      <c r="H404" s="8"/>
+      <c r="H404" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I404" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J404" s="4" t="s">
         <v>1985</v>
       </c>
@@ -24748,7 +24917,12 @@
       <c r="G405" s="7" t="s">
         <v>1989</v>
       </c>
-      <c r="H405" s="8"/>
+      <c r="H405" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I405" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J405" s="4" t="s">
         <v>20</v>
       </c>
@@ -24779,7 +24953,12 @@
       <c r="G406" s="7" t="s">
         <v>1993</v>
       </c>
-      <c r="H406" s="8"/>
+      <c r="H406" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I406" s="3" t="s">
+        <v>709</v>
+      </c>
       <c r="J406" s="4" t="s">
         <v>20</v>
       </c>
@@ -24810,7 +24989,12 @@
       <c r="G407" s="7" t="s">
         <v>1997</v>
       </c>
-      <c r="H407" s="8"/>
+      <c r="H407" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I407" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J407" s="4" t="s">
         <v>1998</v>
       </c>
@@ -24841,7 +25025,12 @@
       <c r="G408" s="7" t="s">
         <v>2000</v>
       </c>
-      <c r="H408" s="8"/>
+      <c r="H408" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I408" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J408" s="4" t="s">
         <v>2001</v>
       </c>
@@ -24872,7 +25061,12 @@
       <c r="G409" s="7" t="s">
         <v>2004</v>
       </c>
-      <c r="H409" s="8"/>
+      <c r="H409" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I409" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="J409" s="4" t="s">
         <v>2005</v>
       </c>
@@ -24903,7 +25097,12 @@
       <c r="G410" s="7" t="s">
         <v>2009</v>
       </c>
-      <c r="H410" s="8"/>
+      <c r="H410" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I410" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="J410" s="4" t="s">
         <v>2010</v>
       </c>
@@ -24934,7 +25133,12 @@
       <c r="G411" s="7" t="s">
         <v>2014</v>
       </c>
-      <c r="H411" s="8"/>
+      <c r="H411" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I411" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="J411" s="4" t="s">
         <v>20</v>
       </c>
@@ -24967,7 +25171,12 @@
       <c r="G412" s="7" t="s">
         <v>2018</v>
       </c>
-      <c r="H412" s="8"/>
+      <c r="H412" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I412" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J412" s="4" t="s">
         <v>2019</v>
       </c>
@@ -24998,7 +25207,12 @@
       <c r="G413" s="7" t="s">
         <v>2023</v>
       </c>
-      <c r="H413" s="8"/>
+      <c r="H413" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I413" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J413" s="4" t="s">
         <v>20</v>
       </c>
@@ -25029,7 +25243,12 @@
       <c r="G414" s="7" t="s">
         <v>2027</v>
       </c>
-      <c r="H414" s="8"/>
+      <c r="H414" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I414" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J414" s="4" t="s">
         <v>2028</v>
       </c>
@@ -25060,7 +25279,12 @@
       <c r="G415" s="7" t="s">
         <v>2032</v>
       </c>
-      <c r="H415" s="8"/>
+      <c r="H415" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I415" s="3" t="s">
+        <v>525</v>
+      </c>
       <c r="J415" s="4" t="s">
         <v>20</v>
       </c>
@@ -25091,7 +25315,12 @@
       <c r="G416" s="7" t="s">
         <v>2036</v>
       </c>
-      <c r="H416" s="8"/>
+      <c r="H416" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I416" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="J416" s="4" t="s">
         <v>20</v>
       </c>
@@ -25122,7 +25351,12 @@
       <c r="G417" s="7" t="s">
         <v>2038</v>
       </c>
-      <c r="H417" s="8"/>
+      <c r="H417" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I417" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="J417" s="4" t="s">
         <v>20</v>
       </c>
@@ -25153,7 +25387,12 @@
       <c r="G418" s="7" t="s">
         <v>2042</v>
       </c>
-      <c r="H418" s="8"/>
+      <c r="H418" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I418" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="J418" s="4" t="s">
         <v>20</v>
       </c>
@@ -25184,7 +25423,12 @@
       <c r="G419" s="7" t="s">
         <v>2046</v>
       </c>
-      <c r="H419" s="8"/>
+      <c r="H419" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I419" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J419" s="4" t="s">
         <v>2047</v>
       </c>
@@ -25215,7 +25459,12 @@
       <c r="G420" s="7" t="s">
         <v>2051</v>
       </c>
-      <c r="H420" s="8"/>
+      <c r="H420" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I420" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="J420" s="4" t="s">
         <v>20</v>
       </c>
@@ -25246,7 +25495,12 @@
       <c r="G421" s="7" t="s">
         <v>2053</v>
       </c>
-      <c r="H421" s="8"/>
+      <c r="H421" s="8" t="s">
+        <v>1654</v>
+      </c>
+      <c r="I421" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="J421" s="4" t="s">
         <v>20</v>
       </c>
@@ -25277,7 +25531,12 @@
       <c r="G422" s="7" t="s">
         <v>2057</v>
       </c>
-      <c r="H422" s="8"/>
+      <c r="H422" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I422" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="J422" s="4" t="s">
         <v>20</v>
       </c>
@@ -25308,7 +25567,12 @@
       <c r="G423" s="7" t="s">
         <v>2061</v>
       </c>
-      <c r="H423" s="8"/>
+      <c r="H423" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I423" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J423" s="4" t="s">
         <v>2062</v>
       </c>
@@ -25339,7 +25603,12 @@
       <c r="G424" s="7" t="s">
         <v>2064</v>
       </c>
-      <c r="H424" s="8"/>
+      <c r="H424" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I424" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J424" s="4" t="s">
         <v>2065</v>
       </c>
@@ -25370,7 +25639,12 @@
       <c r="G425" s="7" t="s">
         <v>2068</v>
       </c>
-      <c r="H425" s="8"/>
+      <c r="H425" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="I425" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="J425" s="4" t="s">
         <v>20</v>
       </c>
@@ -25401,7 +25675,12 @@
       <c r="G426" s="7" t="s">
         <v>2072</v>
       </c>
-      <c r="H426" s="8"/>
+      <c r="H426" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I426" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J426" s="4" t="s">
         <v>20</v>
       </c>
@@ -25432,7 +25711,12 @@
       <c r="G427" s="7" t="s">
         <v>2076</v>
       </c>
-      <c r="H427" s="8"/>
+      <c r="H427" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I427" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J427" s="4" t="s">
         <v>2077</v>
       </c>
@@ -25463,7 +25747,12 @@
       <c r="G428" s="7" t="s">
         <v>2080</v>
       </c>
-      <c r="H428" s="8"/>
+      <c r="H428" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="I428" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="J428" s="4" t="s">
         <v>20</v>
       </c>
@@ -25494,7 +25783,12 @@
       <c r="G429" s="7" t="s">
         <v>2083</v>
       </c>
-      <c r="H429" s="8"/>
+      <c r="H429" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I429" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="J429" s="4" t="s">
         <v>20</v>
       </c>
@@ -25525,7 +25819,12 @@
       <c r="G430" s="7" t="s">
         <v>2086</v>
       </c>
-      <c r="H430" s="8"/>
+      <c r="H430" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I430" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J430" s="4" t="s">
         <v>2087</v>
       </c>
@@ -25556,7 +25855,12 @@
       <c r="G431" s="7" t="s">
         <v>2090</v>
       </c>
-      <c r="H431" s="8"/>
+      <c r="H431" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="I431" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="J431" s="4" t="s">
         <v>20</v>
       </c>
@@ -25587,7 +25891,12 @@
       <c r="G432" s="7" t="s">
         <v>2094</v>
       </c>
-      <c r="H432" s="8"/>
+      <c r="H432" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I432" s="3" t="s">
+        <v>724</v>
+      </c>
       <c r="J432" s="4" t="s">
         <v>20</v>
       </c>
@@ -25620,7 +25929,12 @@
       <c r="G433" s="7" t="s">
         <v>2099</v>
       </c>
-      <c r="H433" s="8"/>
+      <c r="H433" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I433" s="3" t="s">
+        <v>640</v>
+      </c>
       <c r="J433" s="4" t="s">
         <v>20</v>
       </c>
@@ -25651,7 +25965,12 @@
       <c r="G434" s="7" t="s">
         <v>2102</v>
       </c>
-      <c r="H434" s="8"/>
+      <c r="H434" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="I434" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="J434" s="4" t="s">
         <v>20</v>
       </c>
@@ -25684,7 +26003,12 @@
       <c r="G435" s="7" t="s">
         <v>2105</v>
       </c>
-      <c r="H435" s="8"/>
+      <c r="H435" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I435" s="3" t="s">
+        <v>1321</v>
+      </c>
       <c r="J435" s="4" t="s">
         <v>2106</v>
       </c>
@@ -25715,7 +26039,12 @@
       <c r="G436" s="7" t="s">
         <v>2109</v>
       </c>
-      <c r="H436" s="8"/>
+      <c r="H436" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I436" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="J436" s="4" t="s">
         <v>20</v>
       </c>
@@ -25746,7 +26075,12 @@
       <c r="G437" s="7" t="s">
         <v>2112</v>
       </c>
-      <c r="H437" s="8"/>
+      <c r="H437" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="I437" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="J437" s="4" t="s">
         <v>20</v>
       </c>
@@ -25777,7 +26111,12 @@
       <c r="G438" s="7" t="s">
         <v>2115</v>
       </c>
-      <c r="H438" s="8"/>
+      <c r="H438" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I438" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J438" s="4" t="s">
         <v>2116</v>
       </c>
@@ -25808,7 +26147,12 @@
       <c r="G439" s="7" t="s">
         <v>2119</v>
       </c>
-      <c r="H439" s="8"/>
+      <c r="H439" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I439" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="J439" s="4" t="s">
         <v>20</v>
       </c>
@@ -25839,7 +26183,12 @@
       <c r="G440" s="7" t="s">
         <v>2122</v>
       </c>
-      <c r="H440" s="8"/>
+      <c r="H440" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I440" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J440" s="4" t="s">
         <v>20</v>
       </c>
@@ -25870,7 +26219,12 @@
       <c r="G441" s="7" t="s">
         <v>2125</v>
       </c>
-      <c r="H441" s="8"/>
+      <c r="H441" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I441" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J441" s="4" t="s">
         <v>20</v>
       </c>
@@ -25901,7 +26255,12 @@
       <c r="G442" s="7" t="s">
         <v>2129</v>
       </c>
-      <c r="H442" s="8"/>
+      <c r="H442" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I442" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="J442" s="4" t="s">
         <v>20</v>
       </c>
@@ -25932,7 +26291,12 @@
       <c r="G443" s="7" t="s">
         <v>2131</v>
       </c>
-      <c r="H443" s="8"/>
+      <c r="H443" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I443" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J443" s="4" t="s">
         <v>20</v>
       </c>
@@ -25963,7 +26327,12 @@
       <c r="G444" s="7" t="s">
         <v>2135</v>
       </c>
-      <c r="H444" s="8"/>
+      <c r="H444" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I444" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="J444" s="4" t="s">
         <v>20</v>
       </c>
@@ -25996,7 +26365,12 @@
       <c r="G445" s="7" t="s">
         <v>2139</v>
       </c>
-      <c r="H445" s="8"/>
+      <c r="H445" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I445" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="J445" s="4" t="s">
         <v>2140</v>
       </c>
@@ -26027,7 +26401,12 @@
       <c r="G446" s="7" t="s">
         <v>2143</v>
       </c>
-      <c r="H446" s="8"/>
+      <c r="H446" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I446" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J446" s="4" t="s">
         <v>2144</v>
       </c>
@@ -26058,7 +26437,12 @@
       <c r="G447" s="7" t="s">
         <v>2148</v>
       </c>
-      <c r="H447" s="8"/>
+      <c r="H447" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I447" s="3" t="s">
+        <v>1379</v>
+      </c>
       <c r="J447" s="4" t="s">
         <v>20</v>
       </c>
@@ -26089,7 +26473,12 @@
       <c r="G448" s="7" t="s">
         <v>2152</v>
       </c>
-      <c r="H448" s="8"/>
+      <c r="H448" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I448" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="J448" s="4" t="s">
         <v>20</v>
       </c>
@@ -26120,7 +26509,12 @@
       <c r="G449" s="7" t="s">
         <v>2157</v>
       </c>
-      <c r="H449" s="8"/>
+      <c r="H449" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I449" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="J449" s="4" t="s">
         <v>20</v>
       </c>
@@ -26151,7 +26545,12 @@
       <c r="G450" s="7" t="s">
         <v>2160</v>
       </c>
-      <c r="H450" s="8"/>
+      <c r="H450" s="8" t="s">
+        <v>2161</v>
+      </c>
+      <c r="I450" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J450" s="4" t="s">
         <v>20</v>
       </c>
@@ -26167,24 +26566,29 @@
         <v>434</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="E451" s="4"/>
       <c r="F451" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G451" s="7" t="s">
-        <v>2164</v>
-      </c>
-      <c r="H451" s="8"/>
+        <v>2165</v>
+      </c>
+      <c r="H451" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I451" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J451" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="K451" s="4" t="s">
         <v>21</v>
@@ -26198,22 +26602,27 @@
         <v>439</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="E452" s="4"/>
       <c r="F452" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G452" s="7" t="s">
-        <v>2169</v>
-      </c>
-      <c r="H452" s="8"/>
+        <v>2170</v>
+      </c>
+      <c r="H452" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I452" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J452" s="4" t="s">
         <v>20</v>
       </c>
@@ -26226,27 +26635,32 @@
     </row>
     <row r="453" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="B453" s="4" t="s">
         <v>2136</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="E453" s="4"/>
       <c r="F453" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G453" s="7" t="s">
-        <v>2173</v>
-      </c>
-      <c r="H453" s="8"/>
+        <v>2174</v>
+      </c>
+      <c r="H453" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I453" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="J453" s="4" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="K453" s="4" t="s">
         <v>21</v>
@@ -26260,22 +26674,27 @@
         <v>451</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="E454" s="4"/>
       <c r="F454" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G454" s="7" t="s">
-        <v>2177</v>
-      </c>
-      <c r="H454" s="8"/>
+        <v>2178</v>
+      </c>
+      <c r="H454" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I454" s="3" t="s">
+        <v>724</v>
+      </c>
       <c r="J454" s="4" t="s">
         <v>20</v>
       </c>
@@ -26294,19 +26713,24 @@
         <v>1797</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="E455" s="4"/>
       <c r="F455" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G455" s="7" t="s">
-        <v>2180</v>
-      </c>
-      <c r="H455" s="8"/>
+        <v>2181</v>
+      </c>
+      <c r="H455" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I455" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="J455" s="4" t="s">
         <v>20</v>
       </c>
@@ -26325,19 +26749,24 @@
         <v>177</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="E456" s="4"/>
       <c r="F456" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G456" s="7" t="s">
-        <v>2183</v>
-      </c>
-      <c r="H456" s="8"/>
+        <v>2184</v>
+      </c>
+      <c r="H456" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I456" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="J456" s="4" t="s">
         <v>20</v>
       </c>
@@ -26350,25 +26779,30 @@
     </row>
     <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="4" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="B457" s="4" t="s">
         <v>636</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="E457" s="4"/>
       <c r="F457" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G457" s="7" t="s">
-        <v>2187</v>
-      </c>
-      <c r="H457" s="8"/>
+        <v>2188</v>
+      </c>
+      <c r="H457" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I457" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J457" s="4" t="s">
         <v>20</v>
       </c>
@@ -26381,25 +26815,30 @@
     </row>
     <row r="458" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="4" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="B458" s="4" t="s">
         <v>2092</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="E458" s="4"/>
       <c r="F458" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G458" s="7" t="s">
-        <v>2191</v>
-      </c>
-      <c r="H458" s="8"/>
+        <v>2192</v>
+      </c>
+      <c r="H458" s="8" t="s">
+        <v>2193</v>
+      </c>
+      <c r="I458" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J458" s="4" t="s">
         <v>20</v>
       </c>
@@ -26418,19 +26857,24 @@
         <v>2092</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="E459" s="4"/>
       <c r="F459" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G459" s="7" t="s">
-        <v>2194</v>
-      </c>
-      <c r="H459" s="8"/>
+        <v>2196</v>
+      </c>
+      <c r="H459" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I459" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="J459" s="4" t="s">
         <v>20</v>
       </c>
@@ -26449,21 +26893,26 @@
         <v>1556</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="E460" s="4"/>
       <c r="F460" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G460" s="7" t="s">
-        <v>2196</v>
-      </c>
-      <c r="H460" s="8"/>
+        <v>2198</v>
+      </c>
+      <c r="H460" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I460" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J460" s="4" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="K460" s="4" t="s">
         <v>21</v>
@@ -26480,21 +26929,26 @@
         <v>273</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="E461" s="4"/>
       <c r="F461" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G461" s="7" t="s">
-        <v>2200</v>
-      </c>
-      <c r="H461" s="8"/>
+        <v>2202</v>
+      </c>
+      <c r="H461" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I461" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J461" s="4" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="K461" s="4" t="s">
         <v>21</v>
@@ -26511,19 +26965,24 @@
         <v>219</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="E462" s="4"/>
       <c r="F462" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G462" s="7" t="s">
-        <v>2204</v>
-      </c>
-      <c r="H462" s="8"/>
+        <v>2206</v>
+      </c>
+      <c r="H462" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I462" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="J462" s="4" t="s">
         <v>20</v>
       </c>
@@ -26539,24 +26998,29 @@
         <v>491</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="E463" s="4"/>
       <c r="F463" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G463" s="7" t="s">
-        <v>2207</v>
-      </c>
-      <c r="H463" s="8"/>
+        <v>2209</v>
+      </c>
+      <c r="H463" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I463" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J463" s="4" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="K463" s="4" t="s">
         <v>21</v>
@@ -26573,21 +27037,26 @@
         <v>177</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="E464" s="4"/>
       <c r="F464" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G464" s="7" t="s">
-        <v>2211</v>
-      </c>
-      <c r="H464" s="8"/>
+        <v>2213</v>
+      </c>
+      <c r="H464" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I464" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J464" s="4" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="K464" s="4" t="s">
         <v>21</v>
@@ -26604,19 +27073,24 @@
         <v>1650</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
       <c r="E465" s="4"/>
       <c r="F465" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G465" s="7" t="s">
-        <v>2214</v>
-      </c>
-      <c r="H465" s="8"/>
+        <v>2216</v>
+      </c>
+      <c r="H465" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I465" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="J465" s="4" t="s">
         <v>20</v>
       </c>
@@ -26635,19 +27109,24 @@
         <v>358</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="E466" s="4"/>
       <c r="F466" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G466" s="7" t="s">
-        <v>2217</v>
-      </c>
-      <c r="H466" s="8"/>
+        <v>2219</v>
+      </c>
+      <c r="H466" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I466" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="J466" s="4" t="s">
         <v>20</v>
       </c>
@@ -26663,22 +27142,27 @@
         <v>510</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="E467" s="4"/>
       <c r="F467" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G467" s="7" t="s">
-        <v>2221</v>
-      </c>
-      <c r="H467" s="8"/>
+        <v>2223</v>
+      </c>
+      <c r="H467" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I467" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J467" s="4" t="s">
         <v>20</v>
       </c>
@@ -26694,24 +27178,29 @@
         <v>515</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="E468" s="4"/>
       <c r="F468" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G468" s="7" t="s">
-        <v>2225</v>
-      </c>
-      <c r="H468" s="8"/>
+        <v>2227</v>
+      </c>
+      <c r="H468" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I468" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="J468" s="4" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="K468" s="4" t="s">
         <v>21</v>
@@ -26725,13 +27214,13 @@
         <v>520</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="E469" s="4" t="s">
         <v>215</v>
@@ -26740,11 +27229,16 @@
         <v>41</v>
       </c>
       <c r="G469" s="7" t="s">
-        <v>2230</v>
-      </c>
-      <c r="H469" s="8"/>
+        <v>2232</v>
+      </c>
+      <c r="H469" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I469" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="J469" s="4" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="K469" s="4" t="s">
         <v>21</v>
@@ -26758,22 +27252,27 @@
         <v>527</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="E470" s="4"/>
       <c r="F470" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G470" s="7" t="s">
-        <v>2235</v>
-      </c>
-      <c r="H470" s="8"/>
+        <v>2237</v>
+      </c>
+      <c r="H470" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I470" s="3" t="s">
+        <v>640</v>
+      </c>
       <c r="J470" s="4" t="s">
         <v>20</v>
       </c>
@@ -26792,21 +27291,26 @@
         <v>322</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="E471" s="4"/>
       <c r="F471" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G471" s="7" t="s">
-        <v>2237</v>
-      </c>
-      <c r="H471" s="8"/>
+        <v>2239</v>
+      </c>
+      <c r="H471" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I471" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="J471" s="4" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="K471" s="4" t="s">
         <v>21</v>
@@ -26820,24 +27324,29 @@
         <v>541</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="E472" s="4"/>
       <c r="F472" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G472" s="7" t="s">
-        <v>2242</v>
-      </c>
-      <c r="H472" s="8"/>
+        <v>2244</v>
+      </c>
+      <c r="H472" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I472" s="3" t="s">
+        <v>724</v>
+      </c>
       <c r="J472" s="4" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="K472" s="4" t="s">
         <v>21</v>
@@ -26851,22 +27360,27 @@
         <v>546</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="E473" s="4"/>
       <c r="F473" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G473" s="7" t="s">
-        <v>2247</v>
-      </c>
-      <c r="H473" s="8"/>
+        <v>2249</v>
+      </c>
+      <c r="H473" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I473" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="J473" s="4" t="s">
         <v>20</v>
       </c>
@@ -26879,25 +27393,30 @@
     </row>
     <row r="474" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="4" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="E474" s="4"/>
       <c r="F474" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G474" s="7" t="s">
-        <v>2252</v>
-      </c>
-      <c r="H474" s="8"/>
+        <v>2254</v>
+      </c>
+      <c r="H474" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I474" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="J474" s="4" t="s">
         <v>20</v>
       </c>
@@ -26910,27 +27429,27 @@
     </row>
     <row r="475" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="4" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="B475" s="4" t="s">
         <v>500</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="E475" s="4"/>
       <c r="F475" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G475" s="7" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="H475" s="8"/>
       <c r="J475" s="4" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="K475" s="4" t="s">
         <v>21</v>
@@ -26947,17 +27466,17 @@
         <v>219</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="E476" s="4"/>
       <c r="F476" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G476" s="7" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="H476" s="8"/>
       <c r="J476" s="4" t="s">
@@ -26978,17 +27497,17 @@
         <v>909</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="E477" s="4"/>
       <c r="F477" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G477" s="7" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="H477" s="8"/>
       <c r="J477" s="4" t="s">
@@ -27003,23 +27522,23 @@
     </row>
     <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="4" t="s">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="E478" s="4"/>
       <c r="F478" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G478" s="7" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="H478" s="8"/>
       <c r="J478" s="4" t="s">
@@ -27040,17 +27559,17 @@
         <v>219</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="E479" s="4"/>
       <c r="F479" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G479" s="7" t="s">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="H479" s="8"/>
       <c r="J479" s="4" t="s">
@@ -27068,13 +27587,13 @@
         <v>587</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>346</v>
@@ -27083,11 +27602,11 @@
         <v>41</v>
       </c>
       <c r="G480" s="7" t="s">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="H480" s="8"/>
       <c r="J480" s="4" t="s">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="K480" s="4" t="s">
         <v>21</v>
@@ -27098,23 +27617,23 @@
     </row>
     <row r="481" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="4" t="s">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="B481" s="4" t="s">
         <v>1938</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="E481" s="4"/>
       <c r="F481" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G481" s="7" t="s">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="H481" s="8"/>
       <c r="J481" s="4" t="s">
@@ -27132,20 +27651,20 @@
         <v>592</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>2279</v>
+        <v>2281</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>2280</v>
+        <v>2282</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>2281</v>
+        <v>2283</v>
       </c>
       <c r="E482" s="4"/>
       <c r="F482" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G482" s="7" t="s">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="H482" s="8"/>
       <c r="J482" s="4" t="s">
@@ -27160,23 +27679,23 @@
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="4" t="s">
-        <v>2283</v>
+        <v>2285</v>
       </c>
       <c r="B483" s="4" t="s">
         <v>1781</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>2284</v>
+        <v>2286</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>2285</v>
+        <v>2287</v>
       </c>
       <c r="E483" s="4"/>
       <c r="F483" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G483" s="7" t="s">
-        <v>2286</v>
+        <v>2288</v>
       </c>
       <c r="H483" s="8"/>
       <c r="J483" s="4" t="s">
@@ -27191,27 +27710,27 @@
     </row>
     <row r="484" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="4" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="B484" s="4" t="s">
         <v>177</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="E484" s="4"/>
       <c r="F484" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G484" s="7" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="H484" s="8"/>
       <c r="J484" s="4" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="K484" s="4" t="s">
         <v>21</v>
@@ -27222,23 +27741,23 @@
     </row>
     <row r="485" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="4" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="E485" s="4"/>
       <c r="F485" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G485" s="7" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="H485" s="8"/>
       <c r="J485" s="4" t="s">
@@ -27256,20 +27775,20 @@
         <v>597</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="E486" s="4"/>
       <c r="F486" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G486" s="7" t="s">
-        <v>2299</v>
+        <v>2301</v>
       </c>
       <c r="H486" s="8"/>
       <c r="J486" s="4" t="s">
@@ -27287,20 +27806,20 @@
         <v>606</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>2300</v>
+        <v>2302</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
       <c r="E487" s="4"/>
       <c r="F487" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G487" s="7" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="H487" s="8"/>
       <c r="J487" s="4" t="s">
@@ -27321,21 +27840,21 @@
         <v>1556</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="E488" s="4"/>
       <c r="F488" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G488" s="7" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="H488" s="8"/>
       <c r="J488" s="4" t="s">
-        <v>2307</v>
+        <v>2309</v>
       </c>
       <c r="K488" s="4" t="s">
         <v>21</v>
@@ -27349,24 +27868,24 @@
         <v>615</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>2308</v>
+        <v>2310</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>2309</v>
+        <v>2311</v>
       </c>
       <c r="E489" s="4"/>
       <c r="F489" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G489" s="7" t="s">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="H489" s="8"/>
       <c r="J489" s="4" t="s">
-        <v>2311</v>
+        <v>2313</v>
       </c>
       <c r="K489" s="4" t="s">
         <v>21</v>
@@ -27377,23 +27896,23 @@
     </row>
     <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="4" t="s">
-        <v>2312</v>
+        <v>2314</v>
       </c>
       <c r="B490" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>2313</v>
+        <v>2315</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>2314</v>
+        <v>2316</v>
       </c>
       <c r="E490" s="4"/>
       <c r="F490" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G490" s="7" t="s">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="H490" s="8"/>
       <c r="J490" s="4" t="s">
@@ -27411,20 +27930,20 @@
         <v>627</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>2316</v>
+        <v>2318</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>2317</v>
+        <v>2319</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>2318</v>
+        <v>2320</v>
       </c>
       <c r="E491" s="4"/>
       <c r="F491" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G491" s="7" t="s">
-        <v>2319</v>
+        <v>2321</v>
       </c>
       <c r="H491" s="8"/>
       <c r="J491" s="4" t="s">
@@ -27445,17 +27964,17 @@
         <v>219</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>2320</v>
+        <v>2322</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>2321</v>
+        <v>2323</v>
       </c>
       <c r="E492" s="4"/>
       <c r="F492" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G492" s="7" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="H492" s="8"/>
       <c r="J492" s="4" t="s">
@@ -27476,17 +27995,17 @@
         <v>219</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="E493" s="4"/>
       <c r="F493" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G493" s="7" t="s">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="H493" s="8"/>
       <c r="J493" s="4" t="s">
@@ -27504,24 +28023,24 @@
         <v>645</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>2327</v>
+        <v>2329</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="E494" s="4"/>
       <c r="F494" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G494" s="7" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="H494" s="8"/>
       <c r="J494" s="4" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
       <c r="K494" s="4" t="s">
         <v>21</v>
@@ -27538,17 +28057,17 @@
         <v>2092</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="E495" s="4"/>
       <c r="F495" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G495" s="7" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
       <c r="H495" s="8"/>
       <c r="J495" s="4" t="s">
@@ -27569,17 +28088,17 @@
         <v>1154</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="E496" s="4"/>
       <c r="F496" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G496" s="7" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
       <c r="H496" s="8"/>
       <c r="J496" s="4" t="s">
@@ -27600,17 +28119,17 @@
         <v>854</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="E497" s="4"/>
       <c r="F497" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G497" s="7" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
       <c r="H497" s="8"/>
       <c r="J497" s="4" t="s">
@@ -27631,17 +28150,17 @@
         <v>219</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
       <c r="E498" s="4"/>
       <c r="F498" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G498" s="7" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="H498" s="8"/>
       <c r="J498" s="4" t="s">
@@ -27659,24 +28178,24 @@
         <v>675</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
       <c r="E499" s="4"/>
       <c r="F499" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G499" s="7" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="H499" s="8"/>
       <c r="J499" s="4" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="K499" s="4" t="s">
         <v>21</v>
@@ -27690,20 +28209,20 @@
         <v>679</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
       <c r="E500" s="4"/>
       <c r="F500" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G500" s="7" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
       <c r="H500" s="8"/>
       <c r="J500" s="4" t="s">
@@ -27721,20 +28240,20 @@
         <v>690</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
       <c r="E501" s="4"/>
       <c r="F501" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G501" s="7" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="H501" s="8"/>
       <c r="J501" s="4" t="s">
@@ -27752,20 +28271,20 @@
         <v>699</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
       <c r="E502" s="4"/>
       <c r="F502" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G502" s="7" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
       <c r="H502" s="8"/>
       <c r="J502" s="4" t="s">
@@ -27786,17 +28305,17 @@
         <v>358</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
       <c r="E503" s="4"/>
       <c r="F503" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G503" s="7" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
       <c r="H503" s="8"/>
       <c r="J503" s="4" t="s">
@@ -27817,17 +28336,17 @@
         <v>219</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
       <c r="E504" s="4"/>
       <c r="F504" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G504" s="7" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
       <c r="H504" s="8"/>
       <c r="J504" s="4" t="s">
@@ -27845,24 +28364,24 @@
         <v>720</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="E505" s="4"/>
       <c r="F505" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G505" s="7" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
       <c r="H505" s="8"/>
       <c r="J505" s="4" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
       <c r="K505" s="4" t="s">
         <v>21</v>
@@ -27873,23 +28392,23 @@
     </row>
     <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="4" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
       <c r="E506" s="4"/>
       <c r="F506" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G506" s="7" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
       <c r="H506" s="8"/>
       <c r="J506" s="4" t="s">
@@ -27904,27 +28423,27 @@
     </row>
     <row r="507" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="4" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
       <c r="E507" s="4"/>
       <c r="F507" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G507" s="7" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
       <c r="H507" s="8"/>
       <c r="J507" s="4" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
       <c r="K507" s="4" t="s">
         <v>21</v>
@@ -27938,24 +28457,24 @@
         <v>734</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
       <c r="E508" s="4"/>
       <c r="F508" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G508" s="7" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
       <c r="H508" s="8"/>
       <c r="J508" s="4" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
       <c r="K508" s="4" t="s">
         <v>21</v>
@@ -27966,27 +28485,27 @@
     </row>
     <row r="509" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="4" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
       <c r="E509" s="4"/>
       <c r="F509" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G509" s="7" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
       <c r="H509" s="8"/>
       <c r="J509" s="4" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
       <c r="K509" s="4" t="s">
         <v>21</v>
@@ -28000,20 +28519,20 @@
         <v>740</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
       <c r="E510" s="4"/>
       <c r="F510" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G510" s="7" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
       <c r="H510" s="8"/>
       <c r="J510" s="4" t="s">
@@ -28031,20 +28550,20 @@
         <v>744</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
       <c r="E511" s="4"/>
       <c r="F511" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G511" s="7" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
       <c r="H511" s="8"/>
       <c r="J511" s="4" t="s">
@@ -28059,23 +28578,23 @@
     </row>
     <row r="512" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="4" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="B512" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c r="E512" s="4"/>
       <c r="F512" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G512" s="7" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="H512" s="8"/>
       <c r="J512" s="4" t="s">
@@ -28096,17 +28615,17 @@
         <v>219</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
       <c r="E513" s="4"/>
       <c r="F513" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G513" s="7" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
       <c r="H513" s="8"/>
       <c r="J513" s="4" t="s">
@@ -28124,20 +28643,20 @@
         <v>757</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
       <c r="E514" s="4"/>
       <c r="F514" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G514" s="7" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
       <c r="H514" s="8"/>
       <c r="J514" s="4" t="s">
@@ -28152,23 +28671,23 @@
     </row>
     <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="4" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
       <c r="D515" s="4" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
       <c r="E515" s="4"/>
       <c r="F515" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G515" s="7" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="H515" s="8"/>
       <c r="J515" s="4" t="s">
@@ -28186,24 +28705,24 @@
         <v>762</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="E516" s="4"/>
       <c r="F516" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G516" s="7" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="H516" s="8"/>
       <c r="J516" s="4" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="K516" s="4" t="s">
         <v>21</v>
@@ -28214,23 +28733,23 @@
     </row>
     <row r="517" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="4" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
       <c r="E517" s="4"/>
       <c r="F517" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G517" s="7" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
       <c r="H517" s="8"/>
       <c r="J517" s="4" t="s">
@@ -28248,24 +28767,24 @@
         <v>773</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="E518" s="4"/>
       <c r="F518" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G518" s="7" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="H518" s="8"/>
       <c r="J518" s="4" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
       <c r="K518" s="4" t="s">
         <v>21</v>
@@ -28276,23 +28795,23 @@
     </row>
     <row r="519" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="4" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
       <c r="B519" s="4" t="s">
         <v>616</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
       <c r="E519" s="4"/>
       <c r="F519" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G519" s="7" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
       <c r="H519" s="8"/>
       <c r="J519" s="4" t="s">
@@ -28310,24 +28829,24 @@
         <v>782</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
       <c r="E520" s="4"/>
       <c r="F520" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G520" s="7" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
       <c r="H520" s="8"/>
       <c r="J520" s="4" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
       <c r="K520" s="4" t="s">
         <v>21</v>
@@ -28341,24 +28860,24 @@
         <v>787</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
       <c r="E521" s="4"/>
       <c r="F521" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G521" s="7" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
       <c r="H521" s="8"/>
       <c r="J521" s="4" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
       <c r="K521" s="4" t="s">
         <v>21</v>
@@ -28369,23 +28888,23 @@
     </row>
     <row r="522" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="4" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
       <c r="B522" s="4" t="s">
         <v>1421</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
       <c r="E522" s="4"/>
       <c r="F522" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G522" s="7" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
       <c r="H522" s="8"/>
       <c r="J522" s="4" t="s">
@@ -28406,17 +28925,17 @@
         <v>219</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="E523" s="4"/>
       <c r="F523" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G523" s="7" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="H523" s="8"/>
       <c r="J523" s="4" t="s">
@@ -28431,23 +28950,23 @@
     </row>
     <row r="524" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="4" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="E524" s="4"/>
       <c r="F524" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G524" s="7" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
       <c r="H524" s="8"/>
       <c r="J524" s="4" t="s">
@@ -28462,27 +28981,27 @@
     </row>
     <row r="525" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="4" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
       <c r="E525" s="4"/>
       <c r="F525" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G525" s="7" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="H525" s="8"/>
       <c r="J525" s="4" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="K525" s="4" t="s">
         <v>21</v>
@@ -28496,20 +29015,20 @@
         <v>796</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>2326</v>
+        <v>2328</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="E526" s="4"/>
       <c r="F526" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G526" s="7" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="H526" s="8"/>
       <c r="J526" s="4" t="s">
@@ -28530,17 +29049,17 @@
         <v>23</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="E527" s="4"/>
       <c r="F527" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G527" s="7" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="H527" s="8"/>
       <c r="J527" s="4" t="s">
@@ -28558,20 +29077,20 @@
         <v>805</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="D528" s="4" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="E528" s="4"/>
       <c r="F528" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G528" s="7" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="H528" s="8"/>
       <c r="J528" s="4" t="s">
@@ -28589,24 +29108,24 @@
         <v>810</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="D529" s="4" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="E529" s="4"/>
       <c r="F529" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G529" s="7" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="H529" s="8"/>
       <c r="J529" s="4" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
       <c r="K529" s="4" t="s">
         <v>21</v>
@@ -28620,20 +29139,20 @@
         <v>818</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="D530" s="4" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
       <c r="E530" s="4"/>
       <c r="F530" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G530" s="7" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
       <c r="H530" s="8"/>
       <c r="J530" s="4" t="s">
@@ -28651,24 +29170,24 @@
         <v>823</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
       <c r="D531" s="4" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="E531" s="4"/>
       <c r="F531" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G531" s="7" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="H531" s="8"/>
       <c r="J531" s="4" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="K531" s="4" t="s">
         <v>21</v>
@@ -28682,20 +29201,20 @@
         <v>829</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="D532" s="4" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="E532" s="4"/>
       <c r="F532" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G532" s="7" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="H532" s="8"/>
       <c r="J532" s="4" t="s">
@@ -28713,20 +29232,20 @@
         <v>834</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
       <c r="D533" s="4" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="E533" s="4"/>
       <c r="F533" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G533" s="7" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="H533" s="8"/>
       <c r="J533" s="4" t="s">
@@ -28744,20 +29263,20 @@
         <v>843</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="D534" s="4" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
       <c r="E534" s="4"/>
       <c r="F534" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G534" s="7" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
       <c r="H534" s="8"/>
       <c r="J534" s="4" t="s">
@@ -28778,17 +29297,17 @@
         <v>1252</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
       <c r="E535" s="4"/>
       <c r="F535" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G535" s="7" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
       <c r="H535" s="8"/>
       <c r="J535" s="4" t="s">
@@ -28809,17 +29328,17 @@
         <v>1252</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
       <c r="E536" s="4"/>
       <c r="F536" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G536" s="7" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
       <c r="H536" s="8"/>
       <c r="J536" s="4" t="s">
@@ -28840,17 +29359,17 @@
         <v>219</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
       <c r="E537" s="4"/>
       <c r="F537" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G537" s="7" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
       <c r="H537" s="8"/>
       <c r="J537" s="4" t="s">
@@ -28865,23 +29384,23 @@
     </row>
     <row r="538" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="4" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
       <c r="E538" s="4"/>
       <c r="F538" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G538" s="7" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
       <c r="H538" s="8"/>
       <c r="J538" s="4" t="s">
@@ -28896,23 +29415,23 @@
     </row>
     <row r="539" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="4" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
       <c r="B539" s="4" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
       <c r="E539" s="4"/>
       <c r="F539" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G539" s="7" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="H539" s="8"/>
       <c r="J539" s="4" t="s">
@@ -28930,20 +29449,20 @@
         <v>864</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
       <c r="E540" s="4"/>
       <c r="F540" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G540" s="7" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
       <c r="H540" s="8"/>
       <c r="J540" s="4" t="s">
@@ -28958,23 +29477,23 @@
     </row>
     <row r="541" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="4" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
       <c r="B541" s="4" t="s">
         <v>1683</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
       <c r="E541" s="4"/>
       <c r="F541" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G541" s="7" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
       <c r="H541" s="8"/>
       <c r="J541" s="4" t="s">
@@ -28992,20 +29511,20 @@
         <v>869</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
       <c r="E542" s="4"/>
       <c r="F542" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G542" s="7" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
       <c r="H542" s="8"/>
       <c r="J542" s="4" t="s">
@@ -29026,17 +29545,17 @@
         <v>219</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
       <c r="E543" s="4"/>
       <c r="F543" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G543" s="7" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
       <c r="H543" s="8"/>
       <c r="J543" s="4" t="s">
@@ -29051,23 +29570,23 @@
     </row>
     <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="4" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="B544" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
       <c r="D544" s="4" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
       <c r="E544" s="4"/>
       <c r="F544" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G544" s="7" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
       <c r="H544" s="8"/>
       <c r="J544" s="4" t="s">
@@ -29082,16 +29601,16 @@
     </row>
     <row r="545" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="4" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
       <c r="E545" s="4" t="s">
         <v>215</v>
@@ -29100,7 +29619,7 @@
         <v>16</v>
       </c>
       <c r="G545" s="7" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
       <c r="H545" s="8"/>
       <c r="J545" s="4" t="s">
@@ -29121,17 +29640,17 @@
         <v>616</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
       <c r="E546" s="4"/>
       <c r="F546" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G546" s="7" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="H546" s="8"/>
       <c r="J546" s="4" t="s">
@@ -29152,17 +29671,17 @@
         <v>903</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="E547" s="4"/>
       <c r="F547" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G547" s="7" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="H547" s="8"/>
       <c r="J547" s="4" t="s">
@@ -29177,23 +29696,23 @@
     </row>
     <row r="548" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="4" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
       <c r="E548" s="4"/>
       <c r="F548" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G548" s="7" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
       <c r="H548" s="8"/>
       <c r="J548" s="4" t="s">
@@ -29208,23 +29727,23 @@
     </row>
     <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="4" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
       <c r="E549" s="4"/>
       <c r="F549" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G549" s="7" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
       <c r="H549" s="8"/>
       <c r="J549" s="4" t="s">
@@ -29242,20 +29761,20 @@
         <v>892</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
       <c r="E550" s="4"/>
       <c r="F550" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G550" s="7" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="H550" s="8"/>
       <c r="J550" s="4" t="s">
@@ -29270,23 +29789,23 @@
     </row>
     <row r="551" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="4" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
       <c r="B551" s="4" t="s">
         <v>1797</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
       <c r="E551" s="4"/>
       <c r="F551" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G551" s="7" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
       <c r="H551" s="8"/>
       <c r="J551" s="4" t="s">
@@ -29304,20 +29823,20 @@
         <v>897</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="E552" s="4"/>
       <c r="F552" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G552" s="7" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="H552" s="8"/>
       <c r="J552" s="4" t="s">
@@ -29338,17 +29857,17 @@
         <v>676</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="E553" s="4"/>
       <c r="F553" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G553" s="7" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="H553" s="8"/>
       <c r="J553" s="4" t="s">
@@ -29363,23 +29882,23 @@
     </row>
     <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="4" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="E554" s="4"/>
       <c r="F554" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G554" s="7" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="H554" s="8"/>
       <c r="J554" s="4" t="s">
@@ -29397,20 +29916,20 @@
         <v>913</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="E555" s="4"/>
       <c r="F555" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G555" s="7" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="H555" s="8"/>
       <c r="J555" s="4" t="s">
@@ -29425,23 +29944,23 @@
     </row>
     <row r="556" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="4" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="E556" s="4"/>
       <c r="F556" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G556" s="7" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="H556" s="8"/>
       <c r="J556" s="4" t="s">
@@ -29456,23 +29975,23 @@
     </row>
     <row r="557" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="4" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="B557" s="4" t="s">
         <v>788</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="E557" s="4"/>
       <c r="F557" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G557" s="7" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="H557" s="8"/>
       <c r="J557" s="4" t="s">
@@ -29490,13 +30009,13 @@
         <v>918</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="E558" s="4" t="s">
         <v>346</v>
@@ -29505,11 +30024,11 @@
         <v>87</v>
       </c>
       <c r="G558" s="7" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="H558" s="8"/>
       <c r="J558" s="4" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
       <c r="K558" s="4" t="s">
         <v>21</v>
@@ -29523,20 +30042,20 @@
         <v>923</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
       <c r="E559" s="4"/>
       <c r="F559" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G559" s="7" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
       <c r="H559" s="8"/>
       <c r="J559" s="4" t="s">
@@ -29557,21 +30076,21 @@
         <v>183</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
       <c r="E560" s="4"/>
       <c r="F560" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G560" s="7" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="H560" s="8"/>
       <c r="J560" s="4" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
       <c r="K560" s="4" t="s">
         <v>21</v>
@@ -29582,27 +30101,27 @@
     </row>
     <row r="561" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="4" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
       <c r="B561" s="4" t="s">
         <v>903</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
       <c r="E561" s="4"/>
       <c r="F561" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G561" s="7" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="H561" s="8"/>
       <c r="J561" s="4" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
       <c r="K561" s="4" t="s">
         <v>21</v>
@@ -29613,23 +30132,23 @@
     </row>
     <row r="562" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="4" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
       <c r="B562" s="4" t="s">
         <v>680</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="E562" s="4"/>
       <c r="F562" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G562" s="7" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="H562" s="8"/>
       <c r="J562" s="4" t="s">
@@ -29647,20 +30166,20 @@
         <v>947</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="C563" s="4" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="E563" s="4"/>
       <c r="F563" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G563" s="7" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
       <c r="H563" s="8"/>
       <c r="J563" s="4" t="s">
@@ -29678,20 +30197,20 @@
         <v>951</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="C564" s="4" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
       <c r="E564" s="4"/>
       <c r="F564" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G564" s="7" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="H564" s="8"/>
       <c r="J564" s="4" t="s">
@@ -29706,23 +30225,23 @@
     </row>
     <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="4" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="B565" s="4" t="s">
         <v>768</v>
       </c>
       <c r="C565" s="4" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="E565" s="4"/>
       <c r="F565" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G565" s="7" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="H565" s="8"/>
       <c r="J565" s="4" t="s">
@@ -29743,17 +30262,17 @@
         <v>533</v>
       </c>
       <c r="C566" s="4" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="E566" s="4"/>
       <c r="F566" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G566" s="7" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="H566" s="8"/>
       <c r="J566" s="4" t="s">
@@ -29771,13 +30290,13 @@
         <v>964</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="C567" s="4" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="E567" s="4" t="s">
         <v>346</v>
@@ -29786,11 +30305,11 @@
         <v>41</v>
       </c>
       <c r="G567" s="7" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="H567" s="8"/>
       <c r="J567" s="4" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="K567" s="4" t="s">
         <v>21</v>
@@ -29807,17 +30326,17 @@
         <v>1445</v>
       </c>
       <c r="C568" s="4" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="E568" s="4"/>
       <c r="F568" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G568" s="7" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="H568" s="8"/>
       <c r="J568" s="4" t="s">
@@ -29835,20 +30354,20 @@
         <v>973</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C569" s="4" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="E569" s="4"/>
       <c r="F569" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G569" s="7" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="H569" s="8"/>
       <c r="J569" s="4" t="s">
@@ -29863,23 +30382,23 @@
     </row>
     <row r="570" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="4" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="C570" s="4" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="E570" s="4"/>
       <c r="F570" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G570" s="7" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="H570" s="8"/>
       <c r="J570" s="4" t="s">
@@ -29894,16 +30413,16 @@
     </row>
     <row r="571" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="4" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="C571" s="4" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="E571" s="4" t="s">
         <v>346</v>
@@ -29912,7 +30431,7 @@
         <v>87</v>
       </c>
       <c r="G571" s="7" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="H571" s="8"/>
       <c r="J571" s="4" t="s">
@@ -29930,20 +30449,20 @@
         <v>977</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="E572" s="4"/>
       <c r="F572" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G572" s="7" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="H572" s="8"/>
       <c r="J572" s="4" t="s">
@@ -29964,17 +30483,17 @@
         <v>783</v>
       </c>
       <c r="C573" s="4" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="E573" s="4"/>
       <c r="F573" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G573" s="7" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
       <c r="H573" s="8"/>
       <c r="J573" s="4" t="s">
@@ -29992,20 +30511,20 @@
         <v>987</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C574" s="4" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="E574" s="4"/>
       <c r="F574" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G574" s="7" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
       <c r="H574" s="8"/>
       <c r="J574" s="4" t="s">
@@ -30023,20 +30542,20 @@
         <v>991</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="C575" s="4" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
       <c r="E575" s="4"/>
       <c r="F575" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G575" s="7" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="H575" s="8"/>
       <c r="J575" s="4" t="s">
@@ -30057,21 +30576,21 @@
         <v>273</v>
       </c>
       <c r="C576" s="4" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="E576" s="4"/>
       <c r="F576" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G576" s="7" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
       <c r="H576" s="8"/>
       <c r="J576" s="4" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="K576" s="4" t="s">
         <v>21</v>
@@ -30085,20 +30604,20 @@
         <v>1001</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
       <c r="C577" s="4" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
       <c r="E577" s="4"/>
       <c r="F577" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G577" s="7" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="H577" s="8"/>
       <c r="J577" s="4" t="s">
@@ -30116,24 +30635,24 @@
         <v>1004</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
       <c r="C578" s="4" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="E578" s="4"/>
       <c r="F578" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G578" s="7" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="H578" s="8"/>
       <c r="J578" s="4" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="K578" s="4" t="s">
         <v>21</v>
@@ -30150,17 +30669,17 @@
         <v>219</v>
       </c>
       <c r="C579" s="4" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="E579" s="4"/>
       <c r="F579" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G579" s="7" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="H579" s="8"/>
       <c r="J579" s="4" t="s">
@@ -30181,17 +30700,17 @@
         <v>802</v>
       </c>
       <c r="C580" s="4" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="E580" s="4"/>
       <c r="F580" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G580" s="7" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="H580" s="8"/>
       <c r="J580" s="4" t="s">
@@ -30209,20 +30728,20 @@
         <v>1017</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="C581" s="4" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c r="E581" s="4"/>
       <c r="F581" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G581" s="7" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
       <c r="H581" s="8"/>
       <c r="J581" s="4" t="s">
@@ -30240,20 +30759,20 @@
         <v>1023</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="C582" s="4" t="s">
-        <v>2662</v>
+        <v>2664</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>2663</v>
+        <v>2665</v>
       </c>
       <c r="E582" s="4"/>
       <c r="F582" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G582" s="7" t="s">
-        <v>2664</v>
+        <v>2666</v>
       </c>
       <c r="H582" s="8"/>
       <c r="J582" s="4" t="s">
@@ -30271,20 +30790,20 @@
         <v>1028</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="C583" s="4" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="E583" s="4"/>
       <c r="F583" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G583" s="7" t="s">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="H583" s="8"/>
       <c r="J583" s="4" t="s">
@@ -30299,23 +30818,23 @@
     </row>
     <row r="584" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="4" t="s">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="B584" s="4" t="s">
         <v>2020</v>
       </c>
       <c r="C584" s="4" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>2670</v>
+        <v>2672</v>
       </c>
       <c r="E584" s="4"/>
       <c r="F584" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G584" s="7" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="H584" s="8"/>
       <c r="J584" s="4" t="s">
@@ -30330,23 +30849,23 @@
     </row>
     <row r="585" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="4" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="B585" s="4" t="s">
         <v>802</v>
       </c>
       <c r="C585" s="4" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="E585" s="4"/>
       <c r="F585" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G585" s="7" t="s">
-        <v>2674</v>
+        <v>2676</v>
       </c>
       <c r="H585" s="8"/>
       <c r="J585" s="4" t="s">
@@ -30367,17 +30886,17 @@
         <v>219</v>
       </c>
       <c r="C586" s="4" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="E586" s="4"/>
       <c r="F586" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G586" s="7" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="H586" s="8"/>
       <c r="J586" s="4" t="s">
@@ -30395,20 +30914,20 @@
         <v>1036</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="C587" s="4" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="E587" s="4"/>
       <c r="F587" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G587" s="7" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="H587" s="8"/>
       <c r="J587" s="4" t="s">
@@ -30429,21 +30948,21 @@
         <v>1077</v>
       </c>
       <c r="C588" s="4" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="E588" s="4"/>
       <c r="F588" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G588" s="7" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="H588" s="8"/>
       <c r="J588" s="4" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="K588" s="4" t="s">
         <v>21</v>
@@ -30457,13 +30976,13 @@
         <v>1046</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="C589" s="4" t="s">
-        <v>2686</v>
+        <v>2688</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="E589" s="4" t="s">
         <v>215</v>
@@ -30472,7 +30991,7 @@
         <v>16</v>
       </c>
       <c r="G589" s="7" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="H589" s="8"/>
       <c r="J589" s="4" t="s">
@@ -30493,17 +31012,17 @@
         <v>332</v>
       </c>
       <c r="C590" s="4" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
       <c r="E590" s="4"/>
       <c r="F590" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G590" s="7" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
       <c r="H590" s="8"/>
       <c r="J590" s="4" t="s">
@@ -30518,23 +31037,23 @@
     </row>
     <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="4" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
       <c r="B591" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C591" s="4" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
       <c r="E591" s="4"/>
       <c r="F591" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G591" s="7" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
       <c r="H591" s="8"/>
       <c r="J591" s="4" t="s">
@@ -30549,16 +31068,16 @@
     </row>
     <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="4" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="C592" s="4" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="E592" s="4" t="s">
         <v>215</v>
@@ -30567,7 +31086,7 @@
         <v>16</v>
       </c>
       <c r="G592" s="7" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="H592" s="8"/>
       <c r="J592" s="4" t="s">
@@ -30588,17 +31107,17 @@
         <v>219</v>
       </c>
       <c r="C593" s="4" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
       <c r="E593" s="4"/>
       <c r="F593" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G593" s="7" t="s">
-        <v>2699</v>
+        <v>2701</v>
       </c>
       <c r="H593" s="8"/>
       <c r="J593" s="4" t="s">
@@ -30613,23 +31132,23 @@
     </row>
     <row r="594" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="4" t="s">
-        <v>2700</v>
+        <v>2702</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>2701</v>
+        <v>2703</v>
       </c>
       <c r="C594" s="4" t="s">
-        <v>2702</v>
+        <v>2704</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>2703</v>
+        <v>2705</v>
       </c>
       <c r="E594" s="4"/>
       <c r="F594" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G594" s="7" t="s">
-        <v>2704</v>
+        <v>2706</v>
       </c>
       <c r="H594" s="8"/>
       <c r="J594" s="4" t="s">
@@ -30647,24 +31166,24 @@
         <v>1062</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>2705</v>
+        <v>2707</v>
       </c>
       <c r="C595" s="4" t="s">
-        <v>2706</v>
+        <v>2708</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>2707</v>
+        <v>2709</v>
       </c>
       <c r="E595" s="4"/>
       <c r="F595" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G595" s="7" t="s">
-        <v>2708</v>
+        <v>2710</v>
       </c>
       <c r="H595" s="8"/>
       <c r="J595" s="4" t="s">
-        <v>2709</v>
+        <v>2711</v>
       </c>
       <c r="K595" s="4" t="s">
         <v>21</v>
@@ -30678,20 +31197,20 @@
         <v>1071</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>2710</v>
+        <v>2712</v>
       </c>
       <c r="C596" s="4" t="s">
-        <v>2706</v>
+        <v>2708</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>2711</v>
+        <v>2713</v>
       </c>
       <c r="E596" s="4"/>
       <c r="F596" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G596" s="7" t="s">
-        <v>2712</v>
+        <v>2714</v>
       </c>
       <c r="H596" s="8"/>
       <c r="J596" s="4" t="s">
@@ -30709,13 +31228,13 @@
         <v>1082</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="C597" s="4" t="s">
-        <v>2714</v>
+        <v>2716</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>2715</v>
+        <v>2717</v>
       </c>
       <c r="E597" s="4" t="s">
         <v>346</v>
@@ -30724,11 +31243,11 @@
         <v>16</v>
       </c>
       <c r="G597" s="7" t="s">
-        <v>2716</v>
+        <v>2718</v>
       </c>
       <c r="H597" s="8"/>
       <c r="J597" s="4" t="s">
-        <v>2717</v>
+        <v>2719</v>
       </c>
       <c r="K597" s="4" t="s">
         <v>21</v>
@@ -30742,24 +31261,24 @@
         <v>1087</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c r="C598" s="4" t="s">
-        <v>2719</v>
+        <v>2721</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>2720</v>
+        <v>2722</v>
       </c>
       <c r="E598" s="4"/>
       <c r="F598" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G598" s="7" t="s">
-        <v>2721</v>
+        <v>2723</v>
       </c>
       <c r="H598" s="8"/>
       <c r="J598" s="4" t="s">
-        <v>2722</v>
+        <v>2724</v>
       </c>
       <c r="K598" s="4" t="s">
         <v>21</v>
@@ -30770,23 +31289,23 @@
     </row>
     <row r="599" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="4" t="s">
-        <v>2723</v>
+        <v>2725</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>2724</v>
+        <v>2726</v>
       </c>
       <c r="C599" s="4" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c r="E599" s="4"/>
       <c r="F599" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G599" s="7" t="s">
-        <v>2727</v>
+        <v>2729</v>
       </c>
       <c r="H599" s="8"/>
       <c r="J599" s="4" t="s">
@@ -30801,23 +31320,23 @@
     </row>
     <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="4" t="s">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c r="B600" s="4" t="s">
         <v>1174</v>
       </c>
       <c r="C600" s="4" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c r="E600" s="4"/>
       <c r="F600" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G600" s="7" t="s">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="H600" s="8"/>
       <c r="J600" s="4" t="s">
@@ -30832,23 +31351,23 @@
     </row>
     <row r="601" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="4" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="B601" s="4" t="s">
         <v>1758</v>
       </c>
       <c r="C601" s="4" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="E601" s="4"/>
       <c r="F601" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G601" s="7" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="H601" s="8"/>
       <c r="J601" s="4" t="s">
@@ -30863,27 +31382,27 @@
     </row>
     <row r="602" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="4" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="B602" s="4" t="s">
         <v>598</v>
       </c>
       <c r="C602" s="4" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="E602" s="4"/>
       <c r="F602" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G602" s="7" t="s">
-        <v>2737</v>
+        <v>2739</v>
       </c>
       <c r="H602" s="8"/>
       <c r="J602" s="4" t="s">
-        <v>2738</v>
+        <v>2740</v>
       </c>
       <c r="K602" s="4" t="s">
         <v>21</v>
@@ -30900,17 +31419,17 @@
         <v>1127</v>
       </c>
       <c r="C603" s="4" t="s">
-        <v>2739</v>
+        <v>2741</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>2740</v>
+        <v>2742</v>
       </c>
       <c r="E603" s="4"/>
       <c r="F603" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G603" s="7" t="s">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="H603" s="8"/>
       <c r="J603" s="4" t="s">
@@ -30925,16 +31444,16 @@
     </row>
     <row r="604" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="4" t="s">
-        <v>2742</v>
+        <v>2744</v>
       </c>
       <c r="B604" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C604" s="4" t="s">
-        <v>2743</v>
+        <v>2745</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>2744</v>
+        <v>2746</v>
       </c>
       <c r="E604" s="4" t="s">
         <v>215</v>
@@ -30943,7 +31462,7 @@
         <v>16</v>
       </c>
       <c r="G604" s="7" t="s">
-        <v>2745</v>
+        <v>2747</v>
       </c>
       <c r="H604" s="8"/>
       <c r="J604" s="4" t="s">
@@ -30961,24 +31480,24 @@
         <v>1101</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>2746</v>
+        <v>2748</v>
       </c>
       <c r="C605" s="4" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="E605" s="4"/>
       <c r="F605" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G605" s="7" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="H605" s="8"/>
       <c r="J605" s="4" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c r="K605" s="4" t="s">
         <v>21</v>
@@ -30995,21 +31514,21 @@
         <v>500</v>
       </c>
       <c r="C606" s="4" t="s">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="E606" s="4"/>
       <c r="F606" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G606" s="7" t="s">
-        <v>2753</v>
+        <v>2755</v>
       </c>
       <c r="H606" s="8"/>
       <c r="J606" s="4" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="K606" s="4" t="s">
         <v>21</v>
@@ -31023,20 +31542,20 @@
         <v>1110</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>2755</v>
+        <v>2757</v>
       </c>
       <c r="C607" s="4" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>2757</v>
+        <v>2759</v>
       </c>
       <c r="E607" s="4"/>
       <c r="F607" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G607" s="7" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="H607" s="8"/>
       <c r="J607" s="4" t="s">
@@ -31057,17 +31576,17 @@
         <v>952</v>
       </c>
       <c r="C608" s="4" t="s">
-        <v>2756</v>
+        <v>2758</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>2759</v>
+        <v>2761</v>
       </c>
       <c r="E608" s="4"/>
       <c r="F608" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G608" s="7" t="s">
-        <v>2760</v>
+        <v>2762</v>
       </c>
       <c r="H608" s="8"/>
       <c r="J608" s="4" t="s">
@@ -31085,20 +31604,20 @@
         <v>1120</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C609" s="4" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="E609" s="4"/>
       <c r="F609" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G609" s="7" t="s">
-        <v>2763</v>
+        <v>2765</v>
       </c>
       <c r="H609" s="8"/>
       <c r="J609" s="4" t="s">
@@ -31113,23 +31632,23 @@
     </row>
     <row r="610" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="4" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="B610" s="4" t="s">
         <v>583</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>2761</v>
+        <v>2763</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>2765</v>
+        <v>2767</v>
       </c>
       <c r="E610" s="4"/>
       <c r="F610" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G610" s="7" t="s">
-        <v>2766</v>
+        <v>2768</v>
       </c>
       <c r="H610" s="8"/>
       <c r="J610" s="4" t="s">
@@ -31147,20 +31666,20 @@
         <v>1126</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>2767</v>
+        <v>2769</v>
       </c>
       <c r="C611" s="4" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="E611" s="4"/>
       <c r="F611" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G611" s="7" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="H611" s="8"/>
       <c r="J611" s="4" t="s">
@@ -31178,20 +31697,20 @@
         <v>1131</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>2771</v>
+        <v>2773</v>
       </c>
       <c r="C612" s="4" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>2772</v>
+        <v>2774</v>
       </c>
       <c r="E612" s="4"/>
       <c r="F612" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G612" s="7" t="s">
-        <v>2773</v>
+        <v>2775</v>
       </c>
       <c r="H612" s="8"/>
       <c r="J612" s="4" t="s">
@@ -31212,17 +31731,17 @@
         <v>1174</v>
       </c>
       <c r="C613" s="4" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>2775</v>
+        <v>2777</v>
       </c>
       <c r="E613" s="4"/>
       <c r="F613" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G613" s="7" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="H613" s="8"/>
       <c r="J613" s="4" t="s">
@@ -31237,23 +31756,23 @@
     </row>
     <row r="614" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="4" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="C614" s="4" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="D614" s="4" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="E614" s="4"/>
       <c r="F614" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G614" s="7" t="s">
-        <v>2780</v>
+        <v>2782</v>
       </c>
       <c r="H614" s="8"/>
       <c r="J614" s="4" t="s">
@@ -31271,20 +31790,20 @@
         <v>1140</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="C615" s="4" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="E615" s="4"/>
       <c r="F615" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G615" s="7" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="H615" s="8"/>
       <c r="J615" s="4" t="s">
@@ -31302,20 +31821,20 @@
         <v>1144</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C616" s="4" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="D616" s="4" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="E616" s="4"/>
       <c r="F616" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G616" s="7" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="H616" s="8"/>
       <c r="J616" s="4" t="s">
@@ -31330,27 +31849,27 @@
     </row>
     <row r="617" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="4" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="B617" s="4" t="s">
         <v>903</v>
       </c>
       <c r="C617" s="4" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="D617" s="4" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="E617" s="4"/>
       <c r="F617" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G617" s="7" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="H617" s="8"/>
       <c r="J617" s="4" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="K617" s="4" t="s">
         <v>21</v>
@@ -31367,21 +31886,21 @@
         <v>1077</v>
       </c>
       <c r="C618" s="4" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="E618" s="4"/>
       <c r="F618" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G618" s="7" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="H618" s="8"/>
       <c r="J618" s="4" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="K618" s="4" t="s">
         <v>21</v>
@@ -31395,20 +31914,20 @@
         <v>1153</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="C619" s="4" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="E619" s="4"/>
       <c r="F619" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G619" s="7" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
       <c r="H619" s="8"/>
       <c r="J619" s="4" t="s">
@@ -31429,17 +31948,17 @@
         <v>206</v>
       </c>
       <c r="C620" s="4" t="s">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="D620" s="4" t="s">
-        <v>2800</v>
+        <v>2802</v>
       </c>
       <c r="E620" s="4"/>
       <c r="F620" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G620" s="7" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="H620" s="8"/>
       <c r="J620" s="4" t="s">
@@ -31457,20 +31976,20 @@
         <v>1167</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
       <c r="C621" s="4" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="E621" s="4"/>
       <c r="F621" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G621" s="7" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="H621" s="8"/>
       <c r="J621" s="4" t="s">
@@ -31488,20 +32007,20 @@
         <v>1173</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="C622" s="4" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c r="D622" s="4" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="E622" s="4"/>
       <c r="F622" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G622" s="7" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="H622" s="8"/>
       <c r="J622" s="4" t="s">
@@ -31519,20 +32038,20 @@
         <v>1178</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="C623" s="4" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="E623" s="4"/>
       <c r="F623" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G623" s="7" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="H623" s="8"/>
       <c r="J623" s="4" t="s">
@@ -31550,13 +32069,13 @@
         <v>1184</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="C624" s="4" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="E624" s="4" t="s">
         <v>215</v>
@@ -31565,7 +32084,7 @@
         <v>16</v>
       </c>
       <c r="G624" s="7" t="s">
-        <v>2816</v>
+        <v>2818</v>
       </c>
       <c r="H624" s="8"/>
       <c r="J624" s="4" t="s">
@@ -31580,23 +32099,23 @@
     </row>
     <row r="625" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="4" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="C625" s="4" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="D625" s="4" t="s">
-        <v>2820</v>
+        <v>2822</v>
       </c>
       <c r="E625" s="4"/>
       <c r="F625" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G625" s="7" t="s">
-        <v>2821</v>
+        <v>2823</v>
       </c>
       <c r="H625" s="8"/>
       <c r="J625" s="4" t="s">
@@ -31617,17 +32136,17 @@
         <v>2136</v>
       </c>
       <c r="C626" s="4" t="s">
-        <v>2819</v>
+        <v>2821</v>
       </c>
       <c r="D626" s="4" t="s">
-        <v>2822</v>
+        <v>2824</v>
       </c>
       <c r="E626" s="4"/>
       <c r="F626" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G626" s="7" t="s">
-        <v>2823</v>
+        <v>2825</v>
       </c>
       <c r="H626" s="8"/>
       <c r="J626" s="4" t="s">
@@ -31648,21 +32167,21 @@
         <v>350</v>
       </c>
       <c r="C627" s="4" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>2825</v>
+        <v>2827</v>
       </c>
       <c r="E627" s="4"/>
       <c r="F627" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G627" s="7" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="H627" s="8"/>
       <c r="J627" s="4" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
       <c r="K627" s="4" t="s">
         <v>21</v>
@@ -31673,27 +32192,27 @@
     </row>
     <row r="628" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="4" t="s">
-        <v>2828</v>
+        <v>2830</v>
       </c>
       <c r="B628" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C628" s="4" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="D628" s="4" t="s">
-        <v>2829</v>
+        <v>2831</v>
       </c>
       <c r="E628" s="4"/>
       <c r="F628" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G628" s="7" t="s">
-        <v>2830</v>
+        <v>2832</v>
       </c>
       <c r="H628" s="8"/>
       <c r="J628" s="4" t="s">
-        <v>2831</v>
+        <v>2833</v>
       </c>
       <c r="K628" s="4" t="s">
         <v>21</v>
@@ -31707,24 +32226,24 @@
         <v>1197</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>2832</v>
+        <v>2834</v>
       </c>
       <c r="C629" s="4" t="s">
-        <v>2824</v>
+        <v>2826</v>
       </c>
       <c r="D629" s="4" t="s">
-        <v>2833</v>
+        <v>2835</v>
       </c>
       <c r="E629" s="4"/>
       <c r="F629" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G629" s="7" t="s">
-        <v>2834</v>
+        <v>2836</v>
       </c>
       <c r="H629" s="8"/>
       <c r="J629" s="4" t="s">
-        <v>2835</v>
+        <v>2837</v>
       </c>
       <c r="K629" s="4" t="s">
         <v>21</v>
@@ -31735,23 +32254,23 @@
     </row>
     <row r="630" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="4" t="s">
-        <v>2836</v>
+        <v>2838</v>
       </c>
       <c r="B630" s="4" t="s">
         <v>943</v>
       </c>
       <c r="C630" s="4" t="s">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="E630" s="4"/>
       <c r="F630" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G630" s="7" t="s">
-        <v>2839</v>
+        <v>2841</v>
       </c>
       <c r="H630" s="8"/>
       <c r="J630" s="4" t="s">
@@ -31772,17 +32291,17 @@
         <v>676</v>
       </c>
       <c r="C631" s="4" t="s">
-        <v>2840</v>
+        <v>2842</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>2841</v>
+        <v>2843</v>
       </c>
       <c r="E631" s="4"/>
       <c r="F631" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G631" s="7" t="s">
-        <v>2842</v>
+        <v>2844</v>
       </c>
       <c r="H631" s="8"/>
       <c r="J631" s="4" t="s">
@@ -31797,23 +32316,23 @@
     </row>
     <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="4" t="s">
-        <v>2843</v>
+        <v>2845</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="C632" s="4" t="s">
-        <v>2844</v>
+        <v>2846</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>2845</v>
+        <v>2847</v>
       </c>
       <c r="E632" s="4"/>
       <c r="F632" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G632" s="7" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="H632" s="8"/>
       <c r="J632" s="4" t="s">
@@ -31831,20 +32350,20 @@
         <v>1214</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
       <c r="C633" s="4" t="s">
-        <v>2848</v>
+        <v>2850</v>
       </c>
       <c r="D633" s="4" t="s">
-        <v>2849</v>
+        <v>2851</v>
       </c>
       <c r="E633" s="4"/>
       <c r="F633" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G633" s="7" t="s">
-        <v>2850</v>
+        <v>2852</v>
       </c>
       <c r="H633" s="8"/>
       <c r="J633" s="4" t="s">
@@ -31865,17 +32384,17 @@
         <v>350</v>
       </c>
       <c r="C634" s="4" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="D634" s="4" t="s">
-        <v>2852</v>
+        <v>2854</v>
       </c>
       <c r="E634" s="4"/>
       <c r="F634" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G634" s="7" t="s">
-        <v>2853</v>
+        <v>2855</v>
       </c>
       <c r="H634" s="8"/>
       <c r="J634" s="4" t="s">
@@ -31890,23 +32409,23 @@
     </row>
     <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="4" t="s">
-        <v>2854</v>
+        <v>2856</v>
       </c>
       <c r="B635" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C635" s="4" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="D635" s="4" t="s">
-        <v>2855</v>
+        <v>2857</v>
       </c>
       <c r="E635" s="4"/>
       <c r="F635" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G635" s="7" t="s">
-        <v>2856</v>
+        <v>2858</v>
       </c>
       <c r="H635" s="8"/>
       <c r="J635" s="4" t="s">
@@ -31924,20 +32443,20 @@
         <v>1224</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>2857</v>
+        <v>2859</v>
       </c>
       <c r="C636" s="4" t="s">
-        <v>2851</v>
+        <v>2853</v>
       </c>
       <c r="D636" s="4" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
       <c r="E636" s="4"/>
       <c r="F636" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G636" s="7" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="H636" s="8"/>
       <c r="J636" s="4" t="s">
@@ -31958,17 +32477,17 @@
         <v>806</v>
       </c>
       <c r="C637" s="4" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
       <c r="D637" s="4" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="E637" s="4"/>
       <c r="F637" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G637" s="7" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
       <c r="H637" s="8"/>
       <c r="J637" s="4" t="s">
@@ -31986,20 +32505,20 @@
         <v>1233</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C638" s="4" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="D638" s="4" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="E638" s="4"/>
       <c r="F638" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G638" s="7" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="H638" s="8"/>
       <c r="J638" s="4" t="s">
@@ -32020,10 +32539,10 @@
         <v>212</v>
       </c>
       <c r="C639" s="4" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="E639" s="4" t="s">
         <v>215</v>
@@ -32032,11 +32551,11 @@
         <v>41</v>
       </c>
       <c r="G639" s="7" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="H639" s="8"/>
       <c r="J639" s="4" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
       <c r="K639" s="4" t="s">
         <v>21</v>
@@ -32050,24 +32569,24 @@
         <v>1251</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="C640" s="4" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
       <c r="D640" s="4" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="E640" s="4"/>
       <c r="F640" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G640" s="7" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
       <c r="H640" s="8"/>
       <c r="J640" s="4" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="K640" s="4" t="s">
         <v>21</v>
@@ -32081,20 +32600,20 @@
         <v>1256</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
       <c r="C641" s="4" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="D641" s="4" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
       <c r="E641" s="4"/>
       <c r="F641" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G641" s="7" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="H641" s="8"/>
       <c r="J641" s="4" t="s">
@@ -32109,23 +32628,23 @@
     </row>
     <row r="642" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="4" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
       <c r="B642" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C642" s="4" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="D642" s="4" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="E642" s="4"/>
       <c r="F642" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G642" s="7" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c r="H642" s="8"/>
       <c r="J642" s="4" t="s">
@@ -32140,23 +32659,23 @@
     </row>
     <row r="643" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="4" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="B643" s="4" t="s">
         <v>1901</v>
       </c>
       <c r="C643" s="4" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="D643" s="4" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
       <c r="E643" s="4"/>
       <c r="F643" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G643" s="7" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="H643" s="8"/>
       <c r="J643" s="4" t="s">
@@ -32174,20 +32693,20 @@
         <v>1262</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="C644" s="4" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="E644" s="4"/>
       <c r="F644" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G644" s="7" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
       <c r="H644" s="8"/>
       <c r="J644" s="4" t="s">
@@ -32208,17 +32727,17 @@
         <v>588</v>
       </c>
       <c r="C645" s="4" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="D645" s="4" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
       <c r="E645" s="4"/>
       <c r="F645" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G645" s="7" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="H645" s="8"/>
       <c r="J645" s="4" t="s">
@@ -32233,23 +32752,23 @@
     </row>
     <row r="646" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="4" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
       <c r="B646" s="4" t="s">
         <v>1121</v>
       </c>
       <c r="C646" s="4" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
       <c r="E646" s="4"/>
       <c r="F646" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G646" s="7" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
       <c r="H646" s="8"/>
       <c r="J646" s="4" t="s">
@@ -32264,27 +32783,27 @@
     </row>
     <row r="647" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="4" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>2896</v>
+        <v>2898</v>
       </c>
       <c r="C647" s="4" t="s">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
       <c r="E647" s="4"/>
       <c r="F647" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G647" s="7" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="H647" s="8"/>
       <c r="J647" s="4" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
       <c r="K647" s="4" t="s">
         <v>21</v>
@@ -32295,27 +32814,27 @@
     </row>
     <row r="648" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="4" t="s">
-        <v>2901</v>
+        <v>2903</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="C648" s="4" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
       <c r="E648" s="4"/>
       <c r="F648" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G648" s="7" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
       <c r="H648" s="8"/>
       <c r="J648" s="4" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="K648" s="4" t="s">
         <v>21</v>
@@ -32332,17 +32851,17 @@
         <v>289</v>
       </c>
       <c r="C649" s="4" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
       <c r="E649" s="4"/>
       <c r="F649" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G649" s="7" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
       <c r="H649" s="8"/>
       <c r="J649" s="4" t="s">
@@ -32363,17 +32882,17 @@
         <v>676</v>
       </c>
       <c r="C650" s="4" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
       <c r="D650" s="4" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="E650" s="4"/>
       <c r="F650" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G650" s="7" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="H650" s="8"/>
       <c r="J650" s="4" t="s">
@@ -32394,10 +32913,10 @@
         <v>1609</v>
       </c>
       <c r="C651" s="4" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="D651" s="4" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="E651" s="4" t="s">
         <v>346</v>
@@ -32406,11 +32925,11 @@
         <v>41</v>
       </c>
       <c r="G651" s="7" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="H651" s="8"/>
       <c r="J651" s="4" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="K651" s="4" t="s">
         <v>21</v>
@@ -32424,20 +32943,20 @@
         <v>1291</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="C652" s="4" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
       <c r="D652" s="4" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="E652" s="4"/>
       <c r="F652" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G652" s="7" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
       <c r="H652" s="8"/>
       <c r="J652" s="4" t="s">
@@ -32455,20 +32974,20 @@
         <v>1296</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>2718</v>
+        <v>2720</v>
       </c>
       <c r="C653" s="4" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="D653" s="4" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="E653" s="4"/>
       <c r="F653" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G653" s="7" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="H653" s="8"/>
       <c r="J653" s="4" t="s">
@@ -32483,23 +33002,23 @@
     </row>
     <row r="654" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="4" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="B654" s="4" t="s">
         <v>2020</v>
       </c>
       <c r="C654" s="4" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="E654" s="4"/>
       <c r="F654" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G654" s="7" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
       <c r="H654" s="8"/>
       <c r="J654" s="4" t="s">
@@ -32517,20 +33036,20 @@
         <v>1302</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="C655" s="4" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="E655" s="4"/>
       <c r="F655" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G655" s="7" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="H655" s="8"/>
       <c r="J655" s="4" t="s">
@@ -32551,10 +33070,10 @@
         <v>1609</v>
       </c>
       <c r="C656" s="4" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="D656" s="4" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="E656" s="4" t="s">
         <v>1061</v>
@@ -32563,11 +33082,11 @@
         <v>41</v>
       </c>
       <c r="G656" s="7" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
       <c r="H656" s="8"/>
       <c r="J656" s="4" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="K656" s="4" t="s">
         <v>21</v>
@@ -32581,24 +33100,24 @@
         <v>1313</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
       <c r="C657" s="4" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="D657" s="4" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="E657" s="4"/>
       <c r="F657" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G657" s="7" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
       <c r="H657" s="8"/>
       <c r="J657" s="4" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="K657" s="4" t="s">
         <v>21</v>
@@ -32615,17 +33134,17 @@
         <v>533</v>
       </c>
       <c r="C658" s="4" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="D658" s="4" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="E658" s="4"/>
       <c r="F658" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G658" s="7" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="H658" s="8"/>
       <c r="J658" s="4" t="s">
@@ -32643,24 +33162,24 @@
         <v>1323</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="C659" s="4" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="D659" s="4" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
       <c r="E659" s="4"/>
       <c r="F659" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G659" s="7" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="H659" s="8"/>
       <c r="J659" s="4" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
       <c r="K659" s="4" t="s">
         <v>21</v>
@@ -32671,27 +33190,27 @@
     </row>
     <row r="660" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="4" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="C660" s="4" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="D660" s="4" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
       <c r="E660" s="4"/>
       <c r="F660" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G660" s="7" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="H660" s="8"/>
       <c r="J660" s="4" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
       <c r="K660" s="4" t="s">
         <v>21</v>
@@ -32705,20 +33224,20 @@
         <v>1350</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
       <c r="C661" s="4" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="D661" s="4" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="E661" s="4"/>
       <c r="F661" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G661" s="7" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="H661" s="8"/>
       <c r="J661" s="4" t="s">
@@ -32739,7 +33258,7 @@
         <v>1609</v>
       </c>
       <c r="C662" s="4" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="D662" s="4" t="s">
         <v>1611</v>
@@ -32769,24 +33288,24 @@
         <v>1367</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="C663" s="4" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="D663" s="4" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="E663" s="4"/>
       <c r="F663" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G663" s="7" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="H663" s="8"/>
       <c r="J663" s="4" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
       <c r="K663" s="4" t="s">
         <v>21</v>
@@ -32803,17 +33322,17 @@
         <v>1005</v>
       </c>
       <c r="C664" s="4" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="D664" s="4" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="E664" s="4"/>
       <c r="F664" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G664" s="7" t="s">
-        <v>2959</v>
+        <v>2961</v>
       </c>
       <c r="H664" s="8"/>
       <c r="J664" s="4" t="s">
@@ -32831,13 +33350,13 @@
         <v>1374</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>2960</v>
+        <v>2962</v>
       </c>
       <c r="C665" s="4" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="D665" s="4" t="s">
-        <v>2962</v>
+        <v>2964</v>
       </c>
       <c r="E665" s="4" t="s">
         <v>1061</v>
@@ -32846,11 +33365,11 @@
         <v>41</v>
       </c>
       <c r="G665" s="7" t="s">
-        <v>2963</v>
+        <v>2965</v>
       </c>
       <c r="H665" s="8"/>
       <c r="J665" s="4" t="s">
-        <v>2964</v>
+        <v>2966</v>
       </c>
       <c r="K665" s="4" t="s">
         <v>21</v>
@@ -32864,20 +33383,20 @@
         <v>1380</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>2965</v>
+        <v>2967</v>
       </c>
       <c r="C666" s="4" t="s">
-        <v>2961</v>
+        <v>2963</v>
       </c>
       <c r="D666" s="4" t="s">
-        <v>2966</v>
+        <v>2968</v>
       </c>
       <c r="E666" s="4"/>
       <c r="F666" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G666" s="7" t="s">
-        <v>2967</v>
+        <v>2969</v>
       </c>
       <c r="H666" s="8"/>
       <c r="J666" s="4" t="s">
@@ -32898,17 +33417,17 @@
         <v>350</v>
       </c>
       <c r="C667" s="4" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="D667" s="4" t="s">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="E667" s="4"/>
       <c r="F667" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G667" s="7" t="s">
-        <v>2970</v>
+        <v>2972</v>
       </c>
       <c r="H667" s="8"/>
       <c r="J667" s="4" t="s">
@@ -32926,20 +33445,20 @@
         <v>1388</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="C668" s="4" t="s">
-        <v>2968</v>
+        <v>2970</v>
       </c>
       <c r="D668" s="4" t="s">
-        <v>2971</v>
+        <v>2973</v>
       </c>
       <c r="E668" s="4"/>
       <c r="F668" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G668" s="7" t="s">
-        <v>2972</v>
+        <v>2974</v>
       </c>
       <c r="H668" s="8"/>
       <c r="J668" s="4" t="s">
@@ -32960,17 +33479,17 @@
         <v>806</v>
       </c>
       <c r="C669" s="4" t="s">
-        <v>2973</v>
+        <v>2975</v>
       </c>
       <c r="D669" s="4" t="s">
-        <v>2974</v>
+        <v>2976</v>
       </c>
       <c r="E669" s="4"/>
       <c r="F669" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G669" s="7" t="s">
-        <v>2975</v>
+        <v>2977</v>
       </c>
       <c r="H669" s="8"/>
       <c r="J669" s="4" t="s">
@@ -32991,21 +33510,21 @@
         <v>676</v>
       </c>
       <c r="C670" s="4" t="s">
-        <v>2976</v>
+        <v>2978</v>
       </c>
       <c r="D670" s="4" t="s">
-        <v>2977</v>
+        <v>2979</v>
       </c>
       <c r="E670" s="4"/>
       <c r="F670" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G670" s="7" t="s">
-        <v>2978</v>
+        <v>2980</v>
       </c>
       <c r="H670" s="8"/>
       <c r="J670" s="4" t="s">
-        <v>2979</v>
+        <v>2981</v>
       </c>
       <c r="K670" s="4" t="s">
         <v>21</v>
@@ -33022,21 +33541,21 @@
         <v>1587</v>
       </c>
       <c r="C671" s="4" t="s">
-        <v>2976</v>
+        <v>2978</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>2980</v>
+        <v>2982</v>
       </c>
       <c r="E671" s="4"/>
       <c r="F671" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G671" s="7" t="s">
-        <v>2981</v>
+        <v>2983</v>
       </c>
       <c r="H671" s="8"/>
       <c r="J671" s="4" t="s">
-        <v>2982</v>
+        <v>2984</v>
       </c>
       <c r="K671" s="4" t="s">
         <v>21</v>
@@ -33053,17 +33572,17 @@
         <v>219</v>
       </c>
       <c r="C672" s="4" t="s">
-        <v>2983</v>
+        <v>2985</v>
       </c>
       <c r="D672" s="4" t="s">
-        <v>2984</v>
+        <v>2986</v>
       </c>
       <c r="E672" s="4"/>
       <c r="F672" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G672" s="7" t="s">
-        <v>2985</v>
+        <v>2987</v>
       </c>
       <c r="H672" s="8"/>
       <c r="J672" s="4" t="s">
@@ -33081,20 +33600,20 @@
         <v>1417</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
       <c r="C673" s="4" t="s">
-        <v>2983</v>
+        <v>2985</v>
       </c>
       <c r="D673" s="4" t="s">
-        <v>2987</v>
+        <v>2989</v>
       </c>
       <c r="E673" s="4"/>
       <c r="F673" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G673" s="7" t="s">
-        <v>2988</v>
+        <v>2990</v>
       </c>
       <c r="H673" s="8"/>
       <c r="J673" s="4" t="s">
@@ -33112,20 +33631,20 @@
         <v>1420</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>2989</v>
+        <v>2991</v>
       </c>
       <c r="C674" s="4" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
       <c r="D674" s="4" t="s">
-        <v>2991</v>
+        <v>2993</v>
       </c>
       <c r="E674" s="4"/>
       <c r="F674" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G674" s="7" t="s">
-        <v>2992</v>
+        <v>2994</v>
       </c>
       <c r="H674" s="8"/>
       <c r="J674" s="4" t="s">
@@ -33146,17 +33665,17 @@
         <v>903</v>
       </c>
       <c r="C675" s="4" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
       <c r="D675" s="4" t="s">
-        <v>2993</v>
+        <v>2995</v>
       </c>
       <c r="E675" s="4"/>
       <c r="F675" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G675" s="7" t="s">
-        <v>2994</v>
+        <v>2996</v>
       </c>
       <c r="H675" s="8"/>
       <c r="J675" s="4" t="s">
@@ -33171,27 +33690,27 @@
     </row>
     <row r="676" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="4" t="s">
-        <v>2995</v>
+        <v>2997</v>
       </c>
       <c r="B676" s="4" t="s">
         <v>289</v>
       </c>
       <c r="C676" s="4" t="s">
-        <v>2990</v>
+        <v>2992</v>
       </c>
       <c r="D676" s="4" t="s">
-        <v>2996</v>
+        <v>2998</v>
       </c>
       <c r="E676" s="4"/>
       <c r="F676" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G676" s="7" t="s">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="H676" s="8"/>
       <c r="J676" s="4" t="s">
-        <v>2998</v>
+        <v>3000</v>
       </c>
       <c r="K676" s="4" t="s">
         <v>21</v>
@@ -33202,23 +33721,23 @@
     </row>
     <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="4" t="s">
-        <v>2999</v>
+        <v>3001</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="C677" s="4" t="s">
-        <v>3001</v>
+        <v>3003</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>3002</v>
+        <v>3004</v>
       </c>
       <c r="E677" s="4"/>
       <c r="F677" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G677" s="7" t="s">
-        <v>3003</v>
+        <v>3005</v>
       </c>
       <c r="H677" s="8"/>
       <c r="J677" s="4" t="s">
@@ -33236,24 +33755,24 @@
         <v>1430</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>3004</v>
+        <v>3006</v>
       </c>
       <c r="C678" s="4" t="s">
-        <v>3005</v>
+        <v>3007</v>
       </c>
       <c r="D678" s="4" t="s">
-        <v>3006</v>
+        <v>3008</v>
       </c>
       <c r="E678" s="4"/>
       <c r="F678" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G678" s="7" t="s">
-        <v>3007</v>
+        <v>3009</v>
       </c>
       <c r="H678" s="8"/>
       <c r="J678" s="4" t="s">
-        <v>3008</v>
+        <v>3010</v>
       </c>
       <c r="K678" s="4" t="s">
         <v>21</v>
@@ -33270,17 +33789,17 @@
         <v>332</v>
       </c>
       <c r="C679" s="4" t="s">
-        <v>3009</v>
+        <v>3011</v>
       </c>
       <c r="D679" s="4" t="s">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="E679" s="4"/>
       <c r="F679" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G679" s="7" t="s">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="H679" s="8"/>
       <c r="J679" s="4" t="s">
@@ -33298,24 +33817,24 @@
         <v>1439</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="C680" s="4" t="s">
-        <v>3012</v>
+        <v>3014</v>
       </c>
       <c r="D680" s="4" t="s">
-        <v>3013</v>
+        <v>3015</v>
       </c>
       <c r="E680" s="4"/>
       <c r="F680" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G680" s="7" t="s">
-        <v>3014</v>
+        <v>3016</v>
       </c>
       <c r="H680" s="8"/>
       <c r="J680" s="4" t="s">
-        <v>3015</v>
+        <v>3017</v>
       </c>
       <c r="K680" s="4" t="s">
         <v>21</v>
@@ -33332,17 +33851,17 @@
         <v>1901</v>
       </c>
       <c r="C681" s="4" t="s">
-        <v>3016</v>
+        <v>3018</v>
       </c>
       <c r="D681" s="4" t="s">
-        <v>3017</v>
+        <v>3019</v>
       </c>
       <c r="E681" s="4"/>
       <c r="F681" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G681" s="7" t="s">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="H681" s="8"/>
       <c r="J681" s="4" t="s">
@@ -33363,21 +33882,21 @@
         <v>611</v>
       </c>
       <c r="C682" s="4" t="s">
-        <v>3019</v>
+        <v>3021</v>
       </c>
       <c r="D682" s="4" t="s">
-        <v>3020</v>
+        <v>3022</v>
       </c>
       <c r="E682" s="4"/>
       <c r="F682" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G682" s="7" t="s">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="H682" s="8"/>
       <c r="J682" s="4" t="s">
-        <v>3022</v>
+        <v>3024</v>
       </c>
       <c r="K682" s="4" t="s">
         <v>21</v>
@@ -33394,17 +33913,17 @@
         <v>903</v>
       </c>
       <c r="C683" s="4" t="s">
-        <v>3023</v>
+        <v>3025</v>
       </c>
       <c r="D683" s="4" t="s">
-        <v>3024</v>
+        <v>3026</v>
       </c>
       <c r="E683" s="4"/>
       <c r="F683" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G683" s="7" t="s">
-        <v>3025</v>
+        <v>3027</v>
       </c>
       <c r="H683" s="8"/>
       <c r="J683" s="4" t="s">
@@ -33419,23 +33938,23 @@
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="4" t="s">
-        <v>3026</v>
+        <v>3028</v>
       </c>
       <c r="B684" s="4" t="s">
         <v>440</v>
       </c>
       <c r="C684" s="4" t="s">
-        <v>3027</v>
+        <v>3029</v>
       </c>
       <c r="D684" s="4" t="s">
-        <v>3028</v>
+        <v>3030</v>
       </c>
       <c r="E684" s="4"/>
       <c r="F684" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G684" s="7" t="s">
-        <v>3029</v>
+        <v>3031</v>
       </c>
       <c r="H684" s="8"/>
       <c r="J684" s="4" t="s">
@@ -33456,17 +33975,17 @@
         <v>542</v>
       </c>
       <c r="C685" s="4" t="s">
-        <v>3030</v>
+        <v>3032</v>
       </c>
       <c r="D685" s="4" t="s">
-        <v>3031</v>
+        <v>3033</v>
       </c>
       <c r="E685" s="4"/>
       <c r="F685" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G685" s="7" t="s">
-        <v>3032</v>
+        <v>3034</v>
       </c>
       <c r="H685" s="8"/>
       <c r="J685" s="4" t="s">
@@ -33487,17 +34006,17 @@
         <v>1174</v>
       </c>
       <c r="C686" s="4" t="s">
-        <v>3033</v>
+        <v>3035</v>
       </c>
       <c r="D686" s="4" t="s">
-        <v>3034</v>
+        <v>3036</v>
       </c>
       <c r="E686" s="4"/>
       <c r="F686" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G686" s="7" t="s">
-        <v>3035</v>
+        <v>3037</v>
       </c>
       <c r="H686" s="8"/>
       <c r="J686" s="4" t="s">
@@ -33515,24 +34034,24 @@
         <v>1479</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="C687" s="4" t="s">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="D687" s="4" t="s">
-        <v>3037</v>
+        <v>3039</v>
       </c>
       <c r="E687" s="4"/>
       <c r="F687" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G687" s="7" t="s">
-        <v>3038</v>
+        <v>3040</v>
       </c>
       <c r="H687" s="8"/>
       <c r="J687" s="4" t="s">
-        <v>3039</v>
+        <v>3041</v>
       </c>
       <c r="K687" s="4" t="s">
         <v>21</v>
@@ -33549,21 +34068,21 @@
         <v>500</v>
       </c>
       <c r="C688" s="4" t="s">
-        <v>3036</v>
+        <v>3038</v>
       </c>
       <c r="D688" s="4" t="s">
-        <v>3040</v>
+        <v>3042</v>
       </c>
       <c r="E688" s="4"/>
       <c r="F688" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G688" s="7" t="s">
-        <v>3041</v>
+        <v>3043</v>
       </c>
       <c r="H688" s="8"/>
       <c r="J688" s="4" t="s">
-        <v>3042</v>
+        <v>3044</v>
       </c>
       <c r="K688" s="4" t="s">
         <v>21</v>
@@ -33580,17 +34099,17 @@
         <v>332</v>
       </c>
       <c r="C689" s="4" t="s">
-        <v>3043</v>
+        <v>3045</v>
       </c>
       <c r="D689" s="4" t="s">
-        <v>3044</v>
+        <v>3046</v>
       </c>
       <c r="E689" s="4"/>
       <c r="F689" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G689" s="7" t="s">
-        <v>3045</v>
+        <v>3047</v>
       </c>
       <c r="H689" s="8"/>
       <c r="J689" s="4" t="s">
@@ -33605,23 +34124,23 @@
     </row>
     <row r="690" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="4" t="s">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>3047</v>
+        <v>3049</v>
       </c>
       <c r="C690" s="4" t="s">
-        <v>3048</v>
+        <v>3050</v>
       </c>
       <c r="D690" s="4" t="s">
-        <v>3049</v>
+        <v>3051</v>
       </c>
       <c r="E690" s="4"/>
       <c r="F690" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G690" s="7" t="s">
-        <v>3050</v>
+        <v>3052</v>
       </c>
       <c r="H690" s="8"/>
       <c r="J690" s="4" t="s">
@@ -33639,24 +34158,24 @@
         <v>1495</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>3051</v>
+        <v>3053</v>
       </c>
       <c r="C691" s="4" t="s">
-        <v>3052</v>
+        <v>3054</v>
       </c>
       <c r="D691" s="4" t="s">
-        <v>3053</v>
+        <v>3055</v>
       </c>
       <c r="E691" s="4"/>
       <c r="F691" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G691" s="7" t="s">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="H691" s="8"/>
       <c r="J691" s="4" t="s">
-        <v>3055</v>
+        <v>3057</v>
       </c>
       <c r="K691" s="4" t="s">
         <v>21</v>
@@ -33667,23 +34186,23 @@
     </row>
     <row r="692" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="4" t="s">
-        <v>3056</v>
+        <v>3058</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>3057</v>
+        <v>3059</v>
       </c>
       <c r="C692" s="4" t="s">
-        <v>3058</v>
+        <v>3060</v>
       </c>
       <c r="D692" s="4" t="s">
-        <v>3059</v>
+        <v>3061</v>
       </c>
       <c r="E692" s="4"/>
       <c r="F692" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G692" s="7" t="s">
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="H692" s="8"/>
       <c r="J692" s="4" t="s">
@@ -33704,17 +34223,17 @@
         <v>583</v>
       </c>
       <c r="C693" s="4" t="s">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="D693" s="4" t="s">
-        <v>3062</v>
+        <v>3064</v>
       </c>
       <c r="E693" s="4"/>
       <c r="F693" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G693" s="7" t="s">
-        <v>3063</v>
+        <v>3065</v>
       </c>
       <c r="H693" s="8"/>
       <c r="J693" s="4" t="s">
@@ -33732,20 +34251,20 @@
         <v>1503</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="C694" s="4" t="s">
-        <v>3064</v>
+        <v>3066</v>
       </c>
       <c r="D694" s="4" t="s">
-        <v>3065</v>
+        <v>3067</v>
       </c>
       <c r="E694" s="4"/>
       <c r="F694" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G694" s="7" t="s">
-        <v>3066</v>
+        <v>3068</v>
       </c>
       <c r="H694" s="8"/>
       <c r="J694" s="4" t="s">
@@ -33763,24 +34282,24 @@
         <v>1509</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="C695" s="4" t="s">
-        <v>3067</v>
+        <v>3069</v>
       </c>
       <c r="D695" s="4" t="s">
-        <v>3068</v>
+        <v>3070</v>
       </c>
       <c r="E695" s="4"/>
       <c r="F695" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G695" s="7" t="s">
-        <v>3069</v>
+        <v>3071</v>
       </c>
       <c r="H695" s="8"/>
       <c r="J695" s="4" t="s">
-        <v>3070</v>
+        <v>3072</v>
       </c>
       <c r="K695" s="4" t="s">
         <v>21</v>
@@ -33797,17 +34316,17 @@
         <v>1121</v>
       </c>
       <c r="C696" s="4" t="s">
-        <v>3071</v>
+        <v>3073</v>
       </c>
       <c r="D696" s="4" t="s">
-        <v>3072</v>
+        <v>3074</v>
       </c>
       <c r="E696" s="4"/>
       <c r="F696" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G696" s="7" t="s">
-        <v>3073</v>
+        <v>3075</v>
       </c>
       <c r="H696" s="8"/>
       <c r="J696" s="4" t="s">
@@ -33825,20 +34344,20 @@
         <v>1519</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>3074</v>
+        <v>3076</v>
       </c>
       <c r="C697" s="4" t="s">
-        <v>3075</v>
+        <v>3077</v>
       </c>
       <c r="D697" s="4" t="s">
-        <v>3076</v>
+        <v>3078</v>
       </c>
       <c r="E697" s="4"/>
       <c r="F697" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G697" s="7" t="s">
-        <v>3077</v>
+        <v>3079</v>
       </c>
       <c r="H697" s="8"/>
       <c r="J697" s="4" t="s">
@@ -33856,20 +34375,20 @@
         <v>1524</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>3074</v>
+        <v>3076</v>
       </c>
       <c r="C698" s="4" t="s">
-        <v>3075</v>
+        <v>3077</v>
       </c>
       <c r="D698" s="4" t="s">
-        <v>3078</v>
+        <v>3080</v>
       </c>
       <c r="E698" s="4"/>
       <c r="F698" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G698" s="7" t="s">
-        <v>3079</v>
+        <v>3081</v>
       </c>
       <c r="H698" s="8"/>
       <c r="J698" s="4" t="s">
@@ -33887,20 +34406,20 @@
         <v>1528</v>
       </c>
       <c r="B699" s="4" t="s">
-        <v>3080</v>
+        <v>3082</v>
       </c>
       <c r="C699" s="4" t="s">
-        <v>3081</v>
+        <v>3083</v>
       </c>
       <c r="D699" s="4" t="s">
-        <v>3082</v>
+        <v>3084</v>
       </c>
       <c r="E699" s="4"/>
       <c r="F699" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G699" s="7" t="s">
-        <v>3083</v>
+        <v>3085</v>
       </c>
       <c r="H699" s="8"/>
       <c r="J699" s="4" t="s">
@@ -33918,20 +34437,20 @@
         <v>1532</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
       <c r="C700" s="4" t="s">
-        <v>3084</v>
+        <v>3086</v>
       </c>
       <c r="D700" s="4" t="s">
-        <v>3085</v>
+        <v>3087</v>
       </c>
       <c r="E700" s="4"/>
       <c r="F700" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G700" s="7" t="s">
-        <v>3086</v>
+        <v>3088</v>
       </c>
       <c r="H700" s="8"/>
       <c r="J700" s="4" t="s">
@@ -33949,20 +34468,20 @@
         <v>1536</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>3087</v>
+        <v>3089</v>
       </c>
       <c r="C701" s="4" t="s">
-        <v>3088</v>
+        <v>3090</v>
       </c>
       <c r="D701" s="4" t="s">
-        <v>3089</v>
+        <v>3091</v>
       </c>
       <c r="E701" s="4"/>
       <c r="F701" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G701" s="7" t="s">
-        <v>3090</v>
+        <v>3092</v>
       </c>
       <c r="H701" s="8"/>
       <c r="J701" s="4" t="s">
@@ -33980,24 +34499,24 @@
         <v>1546</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>3091</v>
+        <v>3093</v>
       </c>
       <c r="C702" s="4" t="s">
-        <v>3092</v>
+        <v>3094</v>
       </c>
       <c r="D702" s="4" t="s">
-        <v>3093</v>
+        <v>3095</v>
       </c>
       <c r="E702" s="4"/>
       <c r="F702" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G702" s="7" t="s">
-        <v>3094</v>
+        <v>3096</v>
       </c>
       <c r="H702" s="8"/>
       <c r="J702" s="4" t="s">
-        <v>3095</v>
+        <v>3097</v>
       </c>
       <c r="K702" s="4" t="s">
         <v>21</v>
@@ -34014,17 +34533,17 @@
         <v>924</v>
       </c>
       <c r="C703" s="4" t="s">
-        <v>3096</v>
+        <v>3098</v>
       </c>
       <c r="D703" s="4" t="s">
-        <v>3097</v>
+        <v>3099</v>
       </c>
       <c r="E703" s="4"/>
       <c r="F703" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G703" s="7" t="s">
-        <v>3098</v>
+        <v>3100</v>
       </c>
       <c r="H703" s="8"/>
       <c r="J703" s="4" t="s">
@@ -34042,20 +34561,20 @@
         <v>1555</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>3099</v>
+        <v>3101</v>
       </c>
       <c r="C704" s="4" t="s">
-        <v>3100</v>
+        <v>3102</v>
       </c>
       <c r="D704" s="4" t="s">
-        <v>3101</v>
+        <v>3103</v>
       </c>
       <c r="E704" s="4"/>
       <c r="F704" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G704" s="7" t="s">
-        <v>3102</v>
+        <v>3104</v>
       </c>
       <c r="H704" s="8"/>
       <c r="J704" s="4" t="s">
@@ -34076,17 +34595,17 @@
         <v>566</v>
       </c>
       <c r="C705" s="4" t="s">
-        <v>3103</v>
+        <v>3105</v>
       </c>
       <c r="D705" s="4" t="s">
-        <v>3104</v>
+        <v>3106</v>
       </c>
       <c r="E705" s="4"/>
       <c r="F705" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G705" s="7" t="s">
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="H705" s="8"/>
       <c r="J705" s="4" t="s">
@@ -34104,20 +34623,20 @@
         <v>1565</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>3106</v>
+        <v>3108</v>
       </c>
       <c r="C706" s="4" t="s">
-        <v>3107</v>
+        <v>3109</v>
       </c>
       <c r="D706" s="4" t="s">
-        <v>3108</v>
+        <v>3110</v>
       </c>
       <c r="E706" s="4"/>
       <c r="F706" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G706" s="7" t="s">
-        <v>3109</v>
+        <v>3111</v>
       </c>
       <c r="H706" s="8"/>
       <c r="J706" s="4" t="s">
@@ -34135,20 +34654,20 @@
         <v>1570</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>3110</v>
+        <v>3112</v>
       </c>
       <c r="C707" s="4" t="s">
-        <v>3107</v>
+        <v>3109</v>
       </c>
       <c r="D707" s="4" t="s">
-        <v>3111</v>
+        <v>3113</v>
       </c>
       <c r="E707" s="4"/>
       <c r="F707" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G707" s="7" t="s">
-        <v>3112</v>
+        <v>3114</v>
       </c>
       <c r="H707" s="8"/>
       <c r="J707" s="4" t="s">
@@ -34163,23 +34682,23 @@
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="4" t="s">
-        <v>3113</v>
+        <v>3115</v>
       </c>
       <c r="B708" s="4" t="s">
         <v>1018</v>
       </c>
       <c r="C708" s="4" t="s">
-        <v>3114</v>
+        <v>3116</v>
       </c>
       <c r="D708" s="4" t="s">
-        <v>3115</v>
+        <v>3117</v>
       </c>
       <c r="E708" s="4"/>
       <c r="F708" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G708" s="7" t="s">
-        <v>3116</v>
+        <v>3118</v>
       </c>
       <c r="H708" s="8"/>
       <c r="J708" s="4" t="s">
@@ -34197,20 +34716,20 @@
         <v>1596</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="C709" s="4" t="s">
-        <v>3118</v>
+        <v>3120</v>
       </c>
       <c r="D709" s="4" t="s">
-        <v>3119</v>
+        <v>3121</v>
       </c>
       <c r="E709" s="4"/>
       <c r="F709" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G709" s="7" t="s">
-        <v>3120</v>
+        <v>3122</v>
       </c>
       <c r="H709" s="8"/>
       <c r="J709" s="4" t="s">
@@ -34228,24 +34747,24 @@
         <v>1602</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="C710" s="4" t="s">
-        <v>3121</v>
+        <v>3123</v>
       </c>
       <c r="D710" s="4" t="s">
-        <v>3122</v>
+        <v>3124</v>
       </c>
       <c r="E710" s="4"/>
       <c r="F710" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G710" s="7" t="s">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="H710" s="8"/>
       <c r="J710" s="4" t="s">
-        <v>3124</v>
+        <v>3126</v>
       </c>
       <c r="K710" s="4" t="s">
         <v>21</v>
@@ -34256,27 +34775,27 @@
     </row>
     <row r="711" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="4" t="s">
-        <v>3125</v>
+        <v>3127</v>
       </c>
       <c r="B711" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="C711" s="4" t="s">
-        <v>3126</v>
+        <v>3128</v>
       </c>
       <c r="D711" s="4" t="s">
-        <v>3127</v>
+        <v>3129</v>
       </c>
       <c r="E711" s="4"/>
       <c r="F711" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G711" s="7" t="s">
-        <v>3128</v>
+        <v>3130</v>
       </c>
       <c r="H711" s="8"/>
       <c r="J711" s="4" t="s">
-        <v>3129</v>
+        <v>3131</v>
       </c>
       <c r="K711" s="4" t="s">
         <v>21</v>
@@ -34290,20 +34809,20 @@
         <v>1608</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="C712" s="4" t="s">
-        <v>3130</v>
+        <v>3132</v>
       </c>
       <c r="D712" s="4" t="s">
-        <v>3131</v>
+        <v>3133</v>
       </c>
       <c r="E712" s="4"/>
       <c r="F712" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G712" s="7" t="s">
-        <v>3132</v>
+        <v>3134</v>
       </c>
       <c r="H712" s="8"/>
       <c r="J712" s="4" t="s">
@@ -34321,20 +34840,20 @@
         <v>1614</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>3133</v>
+        <v>3135</v>
       </c>
       <c r="C713" s="4" t="s">
-        <v>3134</v>
+        <v>3136</v>
       </c>
       <c r="D713" s="4" t="s">
-        <v>3135</v>
+        <v>3137</v>
       </c>
       <c r="E713" s="4"/>
       <c r="F713" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G713" s="7" t="s">
-        <v>3136</v>
+        <v>3138</v>
       </c>
       <c r="H713" s="8"/>
       <c r="J713" s="4" t="s">
@@ -34355,17 +34874,17 @@
         <v>219</v>
       </c>
       <c r="C714" s="4" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="D714" s="4" t="s">
-        <v>3138</v>
+        <v>3140</v>
       </c>
       <c r="E714" s="4"/>
       <c r="F714" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G714" s="7" t="s">
-        <v>3139</v>
+        <v>3141</v>
       </c>
       <c r="H714" s="8"/>
       <c r="J714" s="4" t="s">
@@ -34380,27 +34899,27 @@
     </row>
     <row r="715" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="4" t="s">
-        <v>3140</v>
+        <v>3142</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>3141</v>
+        <v>3143</v>
       </c>
       <c r="C715" s="4" t="s">
-        <v>3137</v>
+        <v>3139</v>
       </c>
       <c r="D715" s="4" t="s">
-        <v>3142</v>
+        <v>3144</v>
       </c>
       <c r="E715" s="4"/>
       <c r="F715" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G715" s="7" t="s">
-        <v>3143</v>
+        <v>3145</v>
       </c>
       <c r="H715" s="8"/>
       <c r="J715" s="4" t="s">
-        <v>3144</v>
+        <v>3146</v>
       </c>
       <c r="K715" s="4" t="s">
         <v>21</v>
@@ -34414,24 +34933,24 @@
         <v>1624</v>
       </c>
       <c r="B716" s="4" t="s">
-        <v>3145</v>
+        <v>3147</v>
       </c>
       <c r="C716" s="4" t="s">
-        <v>3146</v>
+        <v>3148</v>
       </c>
       <c r="D716" s="4" t="s">
-        <v>3147</v>
+        <v>3149</v>
       </c>
       <c r="E716" s="4"/>
       <c r="F716" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G716" s="7" t="s">
-        <v>3148</v>
+        <v>3150</v>
       </c>
       <c r="H716" s="8"/>
       <c r="J716" s="4" t="s">
-        <v>3149</v>
+        <v>3151</v>
       </c>
       <c r="K716" s="4" t="s">
         <v>21</v>
@@ -34445,20 +34964,20 @@
         <v>1628</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>3150</v>
+        <v>3152</v>
       </c>
       <c r="C717" s="4" t="s">
-        <v>3151</v>
+        <v>3153</v>
       </c>
       <c r="D717" s="4" t="s">
-        <v>3152</v>
+        <v>3154</v>
       </c>
       <c r="E717" s="4"/>
       <c r="F717" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G717" s="7" t="s">
-        <v>3153</v>
+        <v>3155</v>
       </c>
       <c r="H717" s="8"/>
       <c r="J717" s="4" t="s">
@@ -34476,20 +34995,20 @@
         <v>1632</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>3154</v>
+        <v>3156</v>
       </c>
       <c r="C718" s="4" t="s">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="D718" s="4" t="s">
-        <v>3156</v>
+        <v>3158</v>
       </c>
       <c r="E718" s="4"/>
       <c r="F718" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G718" s="7" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
       <c r="H718" s="8"/>
       <c r="J718" s="4" t="s">
@@ -34507,20 +35026,20 @@
         <v>1636</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="C719" s="4" t="s">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="D719" s="4" t="s">
-        <v>3160</v>
+        <v>3162</v>
       </c>
       <c r="E719" s="4"/>
       <c r="F719" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G719" s="7" t="s">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="H719" s="8"/>
       <c r="J719" s="4" t="s">
@@ -34541,21 +35060,21 @@
         <v>350</v>
       </c>
       <c r="C720" s="4" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="D720" s="4" t="s">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="E720" s="4"/>
       <c r="F720" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G720" s="7" t="s">
-        <v>3164</v>
+        <v>3166</v>
       </c>
       <c r="H720" s="8"/>
       <c r="J720" s="4" t="s">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="K720" s="4" t="s">
         <v>356</v>
@@ -34569,20 +35088,20 @@
         <v>1646</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>3166</v>
+        <v>3168</v>
       </c>
       <c r="C721" s="4" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="D721" s="4" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="E721" s="4"/>
       <c r="F721" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G721" s="7" t="s">
-        <v>3169</v>
+        <v>3171</v>
       </c>
       <c r="H721" s="8"/>
       <c r="J721" s="4" t="s">
@@ -34597,23 +35116,23 @@
     </row>
     <row r="722" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="4" t="s">
-        <v>3170</v>
+        <v>3172</v>
       </c>
       <c r="B722" s="4" t="s">
         <v>952</v>
       </c>
       <c r="C722" s="4" t="s">
-        <v>3171</v>
+        <v>3173</v>
       </c>
       <c r="D722" s="4" t="s">
-        <v>3172</v>
+        <v>3174</v>
       </c>
       <c r="E722" s="4"/>
       <c r="F722" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G722" s="7" t="s">
-        <v>3173</v>
+        <v>3175</v>
       </c>
       <c r="H722" s="8"/>
       <c r="J722" s="4" t="s">
@@ -34634,17 +35153,17 @@
         <v>566</v>
       </c>
       <c r="C723" s="4" t="s">
-        <v>3174</v>
+        <v>3176</v>
       </c>
       <c r="D723" s="4" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
       <c r="E723" s="4"/>
       <c r="F723" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G723" s="7" t="s">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="H723" s="8"/>
       <c r="J723" s="4" t="s">
@@ -34662,20 +35181,20 @@
         <v>1655</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="C724" s="4" t="s">
-        <v>3174</v>
+        <v>3176</v>
       </c>
       <c r="D724" s="4" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
       <c r="E724" s="4"/>
       <c r="F724" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G724" s="7" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
       <c r="H724" s="8"/>
       <c r="J724" s="4" t="s">
@@ -34693,24 +35212,24 @@
         <v>1660</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="C725" s="4" t="s">
-        <v>3181</v>
+        <v>3183</v>
       </c>
       <c r="D725" s="4" t="s">
-        <v>3182</v>
+        <v>3184</v>
       </c>
       <c r="E725" s="4"/>
       <c r="F725" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G725" s="7" t="s">
-        <v>3183</v>
+        <v>3185</v>
       </c>
       <c r="H725" s="8"/>
       <c r="J725" s="4" t="s">
-        <v>3184</v>
+        <v>3186</v>
       </c>
       <c r="K725" s="4" t="s">
         <v>21</v>
@@ -34724,24 +35243,24 @@
         <v>1663</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>3185</v>
+        <v>3187</v>
       </c>
       <c r="C726" s="4" t="s">
-        <v>3186</v>
+        <v>3188</v>
       </c>
       <c r="D726" s="4" t="s">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="E726" s="4"/>
       <c r="F726" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G726" s="7" t="s">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="H726" s="8"/>
       <c r="J726" s="4" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="K726" s="4" t="s">
         <v>21</v>
@@ -34758,17 +35277,17 @@
         <v>289</v>
       </c>
       <c r="C727" s="4" t="s">
-        <v>3190</v>
+        <v>3192</v>
       </c>
       <c r="D727" s="4" t="s">
-        <v>3191</v>
+        <v>3193</v>
       </c>
       <c r="E727" s="4"/>
       <c r="F727" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G727" s="7" t="s">
-        <v>3192</v>
+        <v>3194</v>
       </c>
       <c r="H727" s="8"/>
       <c r="J727" s="4" t="s">
@@ -34789,17 +35308,17 @@
         <v>934</v>
       </c>
       <c r="C728" s="4" t="s">
-        <v>3193</v>
+        <v>3195</v>
       </c>
       <c r="D728" s="4" t="s">
-        <v>3194</v>
+        <v>3196</v>
       </c>
       <c r="E728" s="4"/>
       <c r="F728" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G728" s="7" t="s">
-        <v>3195</v>
+        <v>3197</v>
       </c>
       <c r="H728" s="8"/>
       <c r="J728" s="4" t="s">
@@ -34814,23 +35333,23 @@
     </row>
     <row r="729" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="4" t="s">
-        <v>3196</v>
+        <v>3198</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="C729" s="4" t="s">
-        <v>3197</v>
+        <v>3199</v>
       </c>
       <c r="D729" s="4" t="s">
-        <v>3198</v>
+        <v>3200</v>
       </c>
       <c r="E729" s="4"/>
       <c r="F729" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G729" s="7" t="s">
-        <v>3199</v>
+        <v>3201</v>
       </c>
       <c r="H729" s="8"/>
       <c r="J729" s="4" t="s">
@@ -34845,16 +35364,16 @@
     </row>
     <row r="730" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="4" t="s">
-        <v>3200</v>
+        <v>3202</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>3201</v>
+        <v>3203</v>
       </c>
       <c r="C730" s="4" t="s">
-        <v>3202</v>
+        <v>3204</v>
       </c>
       <c r="D730" s="4" t="s">
-        <v>3203</v>
+        <v>3205</v>
       </c>
       <c r="E730" s="4" t="s">
         <v>346</v>
@@ -34863,11 +35382,11 @@
         <v>41</v>
       </c>
       <c r="G730" s="7" t="s">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="H730" s="8"/>
       <c r="J730" s="4" t="s">
-        <v>3205</v>
+        <v>3207</v>
       </c>
       <c r="K730" s="4" t="s">
         <v>21</v>
@@ -34881,20 +35400,20 @@
         <v>1676</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>3206</v>
+        <v>3208</v>
       </c>
       <c r="C731" s="4" t="s">
-        <v>3207</v>
+        <v>3209</v>
       </c>
       <c r="D731" s="4" t="s">
-        <v>3208</v>
+        <v>3210</v>
       </c>
       <c r="E731" s="4"/>
       <c r="F731" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G731" s="7" t="s">
-        <v>3209</v>
+        <v>3211</v>
       </c>
       <c r="H731" s="8"/>
       <c r="J731" s="4" t="s">
@@ -34912,20 +35431,20 @@
         <v>1682</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>3210</v>
+        <v>3212</v>
       </c>
       <c r="C732" s="4" t="s">
-        <v>3211</v>
+        <v>3213</v>
       </c>
       <c r="D732" s="4" t="s">
-        <v>3212</v>
+        <v>3214</v>
       </c>
       <c r="E732" s="4"/>
       <c r="F732" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G732" s="7" t="s">
-        <v>3213</v>
+        <v>3215</v>
       </c>
       <c r="H732" s="8"/>
       <c r="J732" s="4" t="s">
@@ -34940,16 +35459,16 @@
     </row>
     <row r="733" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="4" t="s">
-        <v>3214</v>
+        <v>3216</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>2713</v>
+        <v>2715</v>
       </c>
       <c r="C733" s="4" t="s">
-        <v>3215</v>
+        <v>3217</v>
       </c>
       <c r="D733" s="4" t="s">
-        <v>3216</v>
+        <v>3218</v>
       </c>
       <c r="E733" s="4" t="s">
         <v>215</v>
@@ -34958,11 +35477,11 @@
         <v>32</v>
       </c>
       <c r="G733" s="7" t="s">
-        <v>3217</v>
+        <v>3219</v>
       </c>
       <c r="H733" s="8"/>
       <c r="J733" s="4" t="s">
-        <v>3218</v>
+        <v>3220</v>
       </c>
       <c r="K733" s="4" t="s">
         <v>21</v>
@@ -34973,23 +35492,23 @@
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="4" t="s">
-        <v>3219</v>
+        <v>3221</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
       <c r="C734" s="4" t="s">
-        <v>3220</v>
+        <v>3222</v>
       </c>
       <c r="D734" s="4" t="s">
-        <v>3221</v>
+        <v>3223</v>
       </c>
       <c r="E734" s="4"/>
       <c r="F734" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G734" s="7" t="s">
-        <v>3222</v>
+        <v>3224</v>
       </c>
       <c r="H734" s="8"/>
       <c r="J734" s="4" t="s">
@@ -35007,13 +35526,13 @@
         <v>1686</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>3223</v>
+        <v>3225</v>
       </c>
       <c r="C735" s="4" t="s">
-        <v>3224</v>
+        <v>3226</v>
       </c>
       <c r="D735" s="4" t="s">
-        <v>3225</v>
+        <v>3227</v>
       </c>
       <c r="E735" s="4" t="s">
         <v>215</v>
@@ -35022,7 +35541,7 @@
         <v>16</v>
       </c>
       <c r="G735" s="7" t="s">
-        <v>3226</v>
+        <v>3228</v>
       </c>
       <c r="H735" s="8"/>
       <c r="J735" s="4" t="s">
@@ -35040,24 +35559,24 @@
         <v>1689</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="C736" s="4" t="s">
-        <v>3227</v>
+        <v>3229</v>
       </c>
       <c r="D736" s="4" t="s">
-        <v>3228</v>
+        <v>3230</v>
       </c>
       <c r="E736" s="4"/>
       <c r="F736" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G736" s="7" t="s">
-        <v>3229</v>
+        <v>3231</v>
       </c>
       <c r="H736" s="8"/>
       <c r="J736" s="4" t="s">
-        <v>3230</v>
+        <v>3232</v>
       </c>
       <c r="K736" s="4" t="s">
         <v>21</v>
@@ -35071,24 +35590,24 @@
         <v>1694</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="C737" s="4" t="s">
-        <v>3231</v>
+        <v>3233</v>
       </c>
       <c r="D737" s="4" t="s">
-        <v>3232</v>
+        <v>3234</v>
       </c>
       <c r="E737" s="4"/>
       <c r="F737" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G737" s="7" t="s">
-        <v>3233</v>
+        <v>3235</v>
       </c>
       <c r="H737" s="8"/>
       <c r="J737" s="4" t="s">
-        <v>3234</v>
+        <v>3236</v>
       </c>
       <c r="K737" s="4" t="s">
         <v>21</v>
@@ -35102,20 +35621,20 @@
         <v>1698</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>2986</v>
+        <v>2988</v>
       </c>
       <c r="C738" s="4" t="s">
-        <v>3235</v>
+        <v>3237</v>
       </c>
       <c r="D738" s="4" t="s">
-        <v>3236</v>
+        <v>3238</v>
       </c>
       <c r="E738" s="4"/>
       <c r="F738" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G738" s="7" t="s">
-        <v>3237</v>
+        <v>3239</v>
       </c>
       <c r="H738" s="8"/>
       <c r="J738" s="4" t="s">
@@ -35133,20 +35652,20 @@
         <v>1703</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>3238</v>
+        <v>3240</v>
       </c>
       <c r="C739" s="4" t="s">
-        <v>3239</v>
+        <v>3241</v>
       </c>
       <c r="D739" s="4" t="s">
-        <v>3240</v>
+        <v>3242</v>
       </c>
       <c r="E739" s="4"/>
       <c r="F739" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G739" s="7" t="s">
-        <v>3241</v>
+        <v>3243</v>
       </c>
       <c r="H739" s="8"/>
       <c r="J739" s="4" t="s">
@@ -35164,20 +35683,20 @@
         <v>1709</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>3242</v>
+        <v>3244</v>
       </c>
       <c r="C740" s="4" t="s">
-        <v>3243</v>
+        <v>3245</v>
       </c>
       <c r="D740" s="4" t="s">
-        <v>3244</v>
+        <v>3246</v>
       </c>
       <c r="E740" s="4"/>
       <c r="F740" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G740" s="7" t="s">
-        <v>3245</v>
+        <v>3247</v>
       </c>
       <c r="H740" s="8"/>
       <c r="J740" s="4" t="s">
@@ -35195,13 +35714,13 @@
         <v>1717</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>3246</v>
+        <v>3248</v>
       </c>
       <c r="C741" s="4" t="s">
-        <v>3247</v>
+        <v>3249</v>
       </c>
       <c r="D741" s="4" t="s">
-        <v>3248</v>
+        <v>3250</v>
       </c>
       <c r="E741" s="4" t="s">
         <v>346</v>
@@ -35210,11 +35729,11 @@
         <v>16</v>
       </c>
       <c r="G741" s="7" t="s">
-        <v>3249</v>
+        <v>3251</v>
       </c>
       <c r="H741" s="8"/>
       <c r="J741" s="4" t="s">
-        <v>3250</v>
+        <v>3252</v>
       </c>
       <c r="K741" s="4" t="s">
         <v>21</v>
@@ -35231,17 +35750,17 @@
         <v>1389</v>
       </c>
       <c r="C742" s="4" t="s">
-        <v>3251</v>
+        <v>3253</v>
       </c>
       <c r="D742" s="4" t="s">
-        <v>3252</v>
+        <v>3254</v>
       </c>
       <c r="E742" s="4"/>
       <c r="F742" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G742" s="7" t="s">
-        <v>3253</v>
+        <v>3255</v>
       </c>
       <c r="H742" s="8"/>
       <c r="J742" s="4" t="s">
@@ -35259,20 +35778,20 @@
         <v>1726</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="C743" s="4" t="s">
-        <v>3254</v>
+        <v>3256</v>
       </c>
       <c r="D743" s="4" t="s">
-        <v>3255</v>
+        <v>3257</v>
       </c>
       <c r="E743" s="4"/>
       <c r="F743" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G743" s="7" t="s">
-        <v>3256</v>
+        <v>3258</v>
       </c>
       <c r="H743" s="8"/>
       <c r="J743" s="4" t="s">
@@ -35287,16 +35806,16 @@
     </row>
     <row r="744" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="4" t="s">
-        <v>3257</v>
+        <v>3259</v>
       </c>
       <c r="B744" s="4" t="s">
         <v>616</v>
       </c>
       <c r="C744" s="4" t="s">
-        <v>3258</v>
+        <v>3260</v>
       </c>
       <c r="D744" s="4" t="s">
-        <v>3259</v>
+        <v>3261</v>
       </c>
       <c r="E744" s="4" t="s">
         <v>1061</v>
@@ -35305,11 +35824,11 @@
         <v>32</v>
       </c>
       <c r="G744" s="7" t="s">
-        <v>3260</v>
+        <v>3262</v>
       </c>
       <c r="H744" s="8"/>
       <c r="J744" s="4" t="s">
-        <v>3261</v>
+        <v>3263</v>
       </c>
       <c r="K744" s="4" t="s">
         <v>21</v>
@@ -35320,23 +35839,23 @@
     </row>
     <row r="745" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="4" t="s">
-        <v>3262</v>
+        <v>3264</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C745" s="4" t="s">
-        <v>3263</v>
+        <v>3265</v>
       </c>
       <c r="D745" s="4" t="s">
-        <v>3264</v>
+        <v>3266</v>
       </c>
       <c r="E745" s="4"/>
       <c r="F745" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G745" s="7" t="s">
-        <v>3265</v>
+        <v>3267</v>
       </c>
       <c r="H745" s="8"/>
       <c r="J745" s="4" t="s">
@@ -35357,17 +35876,17 @@
         <v>588</v>
       </c>
       <c r="C746" s="4" t="s">
-        <v>3266</v>
+        <v>3268</v>
       </c>
       <c r="D746" s="4" t="s">
-        <v>3267</v>
+        <v>3269</v>
       </c>
       <c r="E746" s="4"/>
       <c r="F746" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G746" s="7" t="s">
-        <v>3268</v>
+        <v>3270</v>
       </c>
       <c r="H746" s="8"/>
       <c r="J746" s="4" t="s">
@@ -35382,23 +35901,23 @@
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="4" t="s">
-        <v>3269</v>
+        <v>3271</v>
       </c>
       <c r="B747" s="4" t="s">
         <v>219</v>
       </c>
       <c r="C747" s="4" t="s">
-        <v>3270</v>
+        <v>3272</v>
       </c>
       <c r="D747" s="4" t="s">
-        <v>3271</v>
+        <v>3273</v>
       </c>
       <c r="E747" s="4"/>
       <c r="F747" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G747" s="7" t="s">
-        <v>3272</v>
+        <v>3274</v>
       </c>
       <c r="H747" s="8"/>
       <c r="J747" s="4" t="s">
@@ -35413,23 +35932,23 @@
     </row>
     <row r="748" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="4" t="s">
-        <v>3273</v>
+        <v>3275</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C748" s="4" t="s">
-        <v>3274</v>
+        <v>3276</v>
       </c>
       <c r="D748" s="4" t="s">
-        <v>3275</v>
+        <v>3277</v>
       </c>
       <c r="E748" s="4"/>
       <c r="F748" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G748" s="7" t="s">
-        <v>3276</v>
+        <v>3278</v>
       </c>
       <c r="H748" s="8"/>
       <c r="J748" s="4" t="s">
@@ -35447,20 +35966,20 @@
         <v>1735</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
       <c r="C749" s="4" t="s">
-        <v>3277</v>
+        <v>3279</v>
       </c>
       <c r="D749" s="4" t="s">
-        <v>3278</v>
+        <v>3280</v>
       </c>
       <c r="E749" s="4"/>
       <c r="F749" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G749" s="7" t="s">
-        <v>3279</v>
+        <v>3281</v>
       </c>
       <c r="H749" s="8"/>
       <c r="J749" s="4" t="s">
@@ -35481,21 +36000,21 @@
         <v>1587</v>
       </c>
       <c r="C750" s="4" t="s">
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="D750" s="4" t="s">
-        <v>3281</v>
+        <v>3283</v>
       </c>
       <c r="E750" s="4"/>
       <c r="F750" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G750" s="7" t="s">
-        <v>3282</v>
+        <v>3284</v>
       </c>
       <c r="H750" s="8"/>
       <c r="J750" s="4" t="s">
-        <v>3283</v>
+        <v>3285</v>
       </c>
       <c r="K750" s="4" t="s">
         <v>21</v>
@@ -35506,23 +36025,23 @@
     </row>
     <row r="751" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="4" t="s">
-        <v>3284</v>
+        <v>3286</v>
       </c>
       <c r="B751" s="4" t="s">
-        <v>3285</v>
+        <v>3287</v>
       </c>
       <c r="C751" s="4" t="s">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="D751" s="4" t="s">
-        <v>3287</v>
+        <v>3289</v>
       </c>
       <c r="E751" s="4"/>
       <c r="F751" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G751" s="7" t="s">
-        <v>3288</v>
+        <v>3290</v>
       </c>
       <c r="H751" s="8"/>
       <c r="J751" s="4" t="s">
@@ -35537,23 +36056,23 @@
     </row>
     <row r="752" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="4" t="s">
-        <v>3289</v>
+        <v>3291</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>3290</v>
+        <v>3292</v>
       </c>
       <c r="C752" s="4" t="s">
-        <v>3291</v>
+        <v>3293</v>
       </c>
       <c r="D752" s="4" t="s">
-        <v>3292</v>
+        <v>3294</v>
       </c>
       <c r="E752" s="4"/>
       <c r="F752" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G752" s="7" t="s">
-        <v>3293</v>
+        <v>3295</v>
       </c>
       <c r="H752" s="8"/>
       <c r="J752" s="4" t="s">
@@ -35568,23 +36087,23 @@
     </row>
     <row r="753" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="4" t="s">
-        <v>3294</v>
+        <v>3296</v>
       </c>
       <c r="B753" s="4" t="s">
-        <v>3295</v>
+        <v>3297</v>
       </c>
       <c r="C753" s="4" t="s">
-        <v>3296</v>
+        <v>3298</v>
       </c>
       <c r="D753" s="4" t="s">
-        <v>3297</v>
+        <v>3299</v>
       </c>
       <c r="E753" s="4"/>
       <c r="F753" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G753" s="7" t="s">
-        <v>3298</v>
+        <v>3300</v>
       </c>
       <c r="H753" s="8"/>
       <c r="J753" s="4" t="s">
@@ -35602,24 +36121,24 @@
         <v>1745</v>
       </c>
       <c r="B754" s="4" t="s">
-        <v>3299</v>
+        <v>3301</v>
       </c>
       <c r="C754" s="4" t="s">
-        <v>3300</v>
+        <v>3302</v>
       </c>
       <c r="D754" s="4" t="s">
-        <v>3301</v>
+        <v>3303</v>
       </c>
       <c r="E754" s="4"/>
       <c r="F754" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G754" s="7" t="s">
-        <v>3302</v>
+        <v>3304</v>
       </c>
       <c r="H754" s="8"/>
       <c r="J754" s="4" t="s">
-        <v>3303</v>
+        <v>3305</v>
       </c>
       <c r="K754" s="4" t="s">
         <v>21</v>
@@ -35633,24 +36152,24 @@
         <v>1749</v>
       </c>
       <c r="B755" s="4" t="s">
-        <v>3304</v>
+        <v>3306</v>
       </c>
       <c r="C755" s="4" t="s">
-        <v>3305</v>
+        <v>3307</v>
       </c>
       <c r="D755" s="4" t="s">
-        <v>3306</v>
+        <v>3308</v>
       </c>
       <c r="E755" s="4"/>
       <c r="F755" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G755" s="7" t="s">
-        <v>3307</v>
+        <v>3309</v>
       </c>
       <c r="H755" s="8"/>
       <c r="J755" s="4" t="s">
-        <v>3308</v>
+        <v>3310</v>
       </c>
       <c r="K755" s="4" t="s">
         <v>21</v>
@@ -35664,24 +36183,24 @@
         <v>1752</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>3309</v>
+        <v>3311</v>
       </c>
       <c r="C756" s="4" t="s">
-        <v>3310</v>
+        <v>3312</v>
       </c>
       <c r="D756" s="4" t="s">
-        <v>3311</v>
+        <v>3313</v>
       </c>
       <c r="E756" s="4"/>
       <c r="F756" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G756" s="7" t="s">
-        <v>3312</v>
+        <v>3314</v>
       </c>
       <c r="H756" s="8"/>
       <c r="J756" s="4" t="s">
-        <v>3313</v>
+        <v>3315</v>
       </c>
       <c r="K756" s="4" t="s">
         <v>21</v>
@@ -35692,23 +36211,23 @@
     </row>
     <row r="757" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="4" t="s">
-        <v>3314</v>
+        <v>3316</v>
       </c>
       <c r="B757" s="4" t="s">
-        <v>3315</v>
+        <v>3317</v>
       </c>
       <c r="C757" s="4" t="s">
-        <v>3316</v>
+        <v>3318</v>
       </c>
       <c r="D757" s="4" t="s">
-        <v>3317</v>
+        <v>3319</v>
       </c>
       <c r="E757" s="4"/>
       <c r="F757" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G757" s="7" t="s">
-        <v>3318</v>
+        <v>3320</v>
       </c>
       <c r="H757" s="8"/>
       <c r="J757" s="4" t="s">
@@ -35726,20 +36245,20 @@
         <v>1757</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>3290</v>
+        <v>3292</v>
       </c>
       <c r="C758" s="4" t="s">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="D758" s="4" t="s">
-        <v>3320</v>
+        <v>3322</v>
       </c>
       <c r="E758" s="4"/>
       <c r="F758" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G758" s="7" t="s">
-        <v>3321</v>
+        <v>3323</v>
       </c>
       <c r="H758" s="8"/>
       <c r="J758" s="4" t="s">
@@ -35754,23 +36273,23 @@
     </row>
     <row r="759" customFormat="false" ht="50.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="4" t="s">
-        <v>3322</v>
+        <v>3324</v>
       </c>
       <c r="B759" s="4" t="s">
-        <v>3323</v>
+        <v>3325</v>
       </c>
       <c r="C759" s="4" t="s">
-        <v>3324</v>
+        <v>3326</v>
       </c>
       <c r="D759" s="4" t="s">
-        <v>3325</v>
+        <v>3327</v>
       </c>
       <c r="E759" s="4"/>
       <c r="F759" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G759" s="7" t="s">
-        <v>3326</v>
+        <v>3328</v>
       </c>
       <c r="H759" s="8"/>
       <c r="J759" s="4" t="s">
@@ -35788,24 +36307,24 @@
         <v>1762</v>
       </c>
       <c r="B760" s="4" t="s">
-        <v>3327</v>
+        <v>3329</v>
       </c>
       <c r="C760" s="4" t="s">
-        <v>3328</v>
+        <v>3330</v>
       </c>
       <c r="D760" s="4" t="s">
-        <v>3329</v>
+        <v>3331</v>
       </c>
       <c r="E760" s="4"/>
       <c r="F760" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G760" s="7" t="s">
-        <v>3330</v>
+        <v>3332</v>
       </c>
       <c r="H760" s="8"/>
       <c r="J760" s="4" t="s">
-        <v>3331</v>
+        <v>3333</v>
       </c>
       <c r="K760" s="4" t="s">
         <v>21</v>
@@ -35819,24 +36338,24 @@
         <v>1766</v>
       </c>
       <c r="B761" s="4" t="s">
-        <v>3332</v>
+        <v>3334</v>
       </c>
       <c r="C761" s="4" t="s">
-        <v>3333</v>
+        <v>3335</v>
       </c>
       <c r="D761" s="4" t="s">
-        <v>3334</v>
+        <v>3336</v>
       </c>
       <c r="E761" s="4"/>
       <c r="F761" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G761" s="7" t="s">
-        <v>3335</v>
+        <v>3337</v>
       </c>
       <c r="H761" s="8"/>
       <c r="J761" s="4" t="s">
-        <v>3336</v>
+        <v>3338</v>
       </c>
       <c r="K761" s="4" t="s">
         <v>21</v>
@@ -35853,17 +36372,17 @@
         <v>1351</v>
       </c>
       <c r="C762" s="4" t="s">
-        <v>3337</v>
+        <v>3339</v>
       </c>
       <c r="D762" s="4" t="s">
-        <v>3338</v>
+        <v>3340</v>
       </c>
       <c r="E762" s="4"/>
       <c r="F762" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G762" s="7" t="s">
-        <v>3339</v>
+        <v>3341</v>
       </c>
       <c r="H762" s="8"/>
       <c r="J762" s="4" t="s">
@@ -35881,10 +36400,10 @@
         <v>1776</v>
       </c>
       <c r="B763" s="4" t="s">
-        <v>3340</v>
+        <v>3342</v>
       </c>
       <c r="C763" s="4" t="s">
-        <v>3341</v>
+        <v>3343</v>
       </c>
       <c r="D763" s="4" t="s">
         <v>2035</v>
@@ -35894,11 +36413,11 @@
         <v>41</v>
       </c>
       <c r="G763" s="7" t="s">
-        <v>3342</v>
+        <v>3344</v>
       </c>
       <c r="H763" s="8"/>
       <c r="J763" s="4" t="s">
-        <v>3343</v>
+        <v>3345</v>
       </c>
       <c r="K763" s="4" t="s">
         <v>21</v>
@@ -35912,10 +36431,10 @@
         <v>1780</v>
       </c>
       <c r="B764" s="4" t="s">
-        <v>3344</v>
+        <v>3346</v>
       </c>
       <c r="C764" s="4" t="s">
-        <v>3345</v>
+        <v>3347</v>
       </c>
       <c r="D764" s="4" t="s">
         <v>1461</v>
@@ -35925,11 +36444,11 @@
         <v>41</v>
       </c>
       <c r="G764" s="7" t="s">
-        <v>3346</v>
+        <v>3348</v>
       </c>
       <c r="H764" s="8"/>
       <c r="J764" s="4" t="s">
-        <v>3347</v>
+        <v>3349</v>
       </c>
       <c r="K764" s="4" t="s">
         <v>21</v>
@@ -35943,24 +36462,24 @@
         <v>1785</v>
       </c>
       <c r="B765" s="4" t="s">
-        <v>3348</v>
+        <v>3350</v>
       </c>
       <c r="C765" s="4" t="s">
-        <v>3349</v>
+        <v>3351</v>
       </c>
       <c r="D765" s="4" t="s">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="E765" s="4"/>
       <c r="F765" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G765" s="7" t="s">
-        <v>3351</v>
+        <v>3353</v>
       </c>
       <c r="H765" s="8"/>
       <c r="J765" s="4" t="s">
-        <v>3352</v>
+        <v>3354</v>
       </c>
       <c r="K765" s="4" t="s">
         <v>21</v>
@@ -35974,10 +36493,10 @@
         <v>1791</v>
       </c>
       <c r="B766" s="4" t="s">
-        <v>3353</v>
+        <v>3355</v>
       </c>
       <c r="C766" s="4" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="D766" s="4" t="s">
         <v>1170</v>
@@ -35987,7 +36506,7 @@
         <v>87</v>
       </c>
       <c r="G766" s="7" t="s">
-        <v>3355</v>
+        <v>3357</v>
       </c>
       <c r="H766" s="8"/>
       <c r="J766" s="4" t="s">
@@ -36005,10 +36524,10 @@
         <v>1796</v>
       </c>
       <c r="B767" s="4" t="s">
+        <v>3358</v>
+      </c>
+      <c r="C767" s="4" t="s">
         <v>3356</v>
-      </c>
-      <c r="C767" s="4" t="s">
-        <v>3354</v>
       </c>
       <c r="D767" s="4" t="s">
         <v>1983</v>
@@ -36018,11 +36537,11 @@
         <v>32</v>
       </c>
       <c r="G767" s="7" t="s">
-        <v>3357</v>
+        <v>3359</v>
       </c>
       <c r="H767" s="8"/>
       <c r="J767" s="4" t="s">
-        <v>3358</v>
+        <v>3360</v>
       </c>
       <c r="K767" s="4" t="s">
         <v>21</v>
@@ -36033,27 +36552,27 @@
     </row>
     <row r="768" customFormat="false" ht="34.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="4" t="s">
-        <v>3359</v>
+        <v>3361</v>
       </c>
       <c r="B768" s="4" t="s">
-        <v>3360</v>
+        <v>3362</v>
       </c>
       <c r="C768" s="4" t="s">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="D768" s="4" t="s">
-        <v>3361</v>
+        <v>3363</v>
       </c>
       <c r="E768" s="4"/>
       <c r="F768" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G768" s="7" t="s">
-        <v>3362</v>
+        <v>3364</v>
       </c>
       <c r="H768" s="8"/>
       <c r="J768" s="4" t="s">
-        <v>3363</v>
+        <v>3365</v>
       </c>
       <c r="K768" s="4" t="s">
         <v>21</v>
@@ -36070,17 +36589,17 @@
         <v>1440</v>
       </c>
       <c r="C769" s="4" t="s">
-        <v>3364</v>
+        <v>3366</v>
       </c>
       <c r="D769" s="4" t="s">
-        <v>3365</v>
+        <v>3367</v>
       </c>
       <c r="E769" s="4"/>
       <c r="F769" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G769" s="7" t="s">
-        <v>3366</v>
+        <v>3368</v>
       </c>
       <c r="H769" s="8"/>
       <c r="J769" s="4" t="s">
@@ -36101,21 +36620,21 @@
         <v>289</v>
       </c>
       <c r="C770" s="4" t="s">
-        <v>3367</v>
+        <v>3369</v>
       </c>
       <c r="D770" s="4" t="s">
-        <v>3368</v>
+        <v>3370</v>
       </c>
       <c r="E770" s="4"/>
       <c r="F770" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G770" s="7" t="s">
-        <v>3369</v>
+        <v>3371</v>
       </c>
       <c r="H770" s="8"/>
       <c r="J770" s="4" t="s">
-        <v>3370</v>
+        <v>3372</v>
       </c>
       <c r="K770" s="4" t="s">
         <v>21</v>
@@ -36129,20 +36648,20 @@
         <v>1811</v>
       </c>
       <c r="B771" s="4" t="s">
-        <v>3371</v>
+        <v>3373</v>
       </c>
       <c r="C771" s="4" t="s">
-        <v>3367</v>
+        <v>3369</v>
       </c>
       <c r="D771" s="4" t="s">
-        <v>3372</v>
+        <v>3374</v>
       </c>
       <c r="E771" s="4"/>
       <c r="F771" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G771" s="7" t="s">
-        <v>3373</v>
+        <v>3375</v>
       </c>
       <c r="H771" s="8"/>
       <c r="J771" s="4" t="s">
@@ -36160,13 +36679,13 @@
         <v>1816</v>
       </c>
       <c r="B772" s="4" t="s">
-        <v>2818</v>
+        <v>2820</v>
       </c>
       <c r="C772" s="4" t="s">
-        <v>3374</v>
+        <v>3376</v>
       </c>
       <c r="D772" s="4" t="s">
-        <v>3375</v>
+        <v>3377</v>
       </c>
       <c r="E772" s="4" t="s">
         <v>215</v>
@@ -36175,11 +36694,11 @@
         <v>41</v>
       </c>
       <c r="G772" s="7" t="s">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="H772" s="8"/>
       <c r="J772" s="4" t="s">
-        <v>3377</v>
+        <v>3379</v>
       </c>
       <c r="K772" s="4" t="s">
         <v>21</v>
@@ -36196,21 +36715,21 @@
         <v>289</v>
       </c>
       <c r="C773" s="4" t="s">
-        <v>3374</v>
+        <v>3376</v>
       </c>
       <c r="D773" s="4" t="s">
-        <v>3378</v>
+        <v>3380</v>
       </c>
       <c r="E773" s="4"/>
       <c r="F773" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G773" s="7" t="s">
-        <v>3379</v>
+        <v>3381</v>
       </c>
       <c r="H773" s="8"/>
       <c r="J773" s="4" t="s">
-        <v>3380</v>
+        <v>3382</v>
       </c>
       <c r="K773" s="4" t="s">
         <v>21</v>
@@ -36227,21 +36746,21 @@
         <v>289</v>
       </c>
       <c r="C774" s="4" t="s">
-        <v>3381</v>
+        <v>3383</v>
       </c>
       <c r="D774" s="4" t="s">
-        <v>3382</v>
+        <v>3384</v>
       </c>
       <c r="E774" s="4"/>
       <c r="F774" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G774" s="7" t="s">
-        <v>3383</v>
+        <v>3385</v>
       </c>
       <c r="H774" s="8"/>
       <c r="J774" s="4" t="s">
-        <v>3384</v>
+        <v>3386</v>
       </c>
       <c r="K774" s="4" t="s">
         <v>21</v>
@@ -36255,24 +36774,24 @@
         <v>1829</v>
       </c>
       <c r="B775" s="4" t="s">
-        <v>3385</v>
+        <v>3387</v>
       </c>
       <c r="C775" s="4" t="s">
-        <v>3386</v>
+        <v>3388</v>
       </c>
       <c r="D775" s="4" t="s">
-        <v>3387</v>
+        <v>3389</v>
       </c>
       <c r="E775" s="4"/>
       <c r="F775" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G775" s="7" t="s">
-        <v>3388</v>
+        <v>3390</v>
       </c>
       <c r="H775" s="8"/>
       <c r="J775" s="4" t="s">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="K775" s="4" t="s">
         <v>21</v>
@@ -36286,24 +36805,24 @@
         <v>1834</v>
       </c>
       <c r="B776" s="4" t="s">
-        <v>3390</v>
+        <v>3392</v>
       </c>
       <c r="C776" s="4" t="s">
-        <v>3391</v>
+        <v>3393</v>
       </c>
       <c r="D776" s="4" t="s">
-        <v>3392</v>
+        <v>3394</v>
       </c>
       <c r="E776" s="4"/>
       <c r="F776" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G776" s="7" t="s">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="H776" s="8"/>
       <c r="J776" s="4" t="s">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="K776" s="4" t="s">
         <v>21</v>
@@ -36317,20 +36836,20 @@
         <v>1840</v>
       </c>
       <c r="B777" s="4" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
       <c r="C777" s="4" t="s">
-        <v>3395</v>
+        <v>3397</v>
       </c>
       <c r="D777" s="4" t="s">
-        <v>3396</v>
+        <v>3398</v>
       </c>
       <c r="E777" s="4"/>
       <c r="F777" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G777" s="7" t="s">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="H777" s="8"/>
       <c r="J777" s="4" t="s">
@@ -36348,24 +36867,24 @@
         <v>1843</v>
       </c>
       <c r="B778" s="4" t="s">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="C778" s="4" t="s">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="D778" s="4" t="s">
-        <v>3400</v>
+        <v>3402</v>
       </c>
       <c r="E778" s="4"/>
       <c r="F778" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G778" s="7" t="s">
-        <v>3401</v>
+        <v>3403</v>
       </c>
       <c r="H778" s="8"/>
       <c r="J778" s="4" t="s">
-        <v>3402</v>
+        <v>3404</v>
       </c>
       <c r="K778" s="4" t="s">
         <v>21</v>
@@ -36375,7 +36894,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="F1:L370"/>
+  <autoFilter ref="F1:L778"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
